--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>2.401381865012524</v>
       </c>
       <c r="C2">
-        <v>1.158560536224741</v>
+        <v>1.158560536224286</v>
       </c>
       <c r="D2">
-        <v>0.3694865423252338</v>
+        <v>0.369486542325717</v>
       </c>
       <c r="E2">
-        <v>0.577106209935458</v>
+        <v>0.5771062099354651</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.7671762778903</v>
+        <v>2.767176277890258</v>
       </c>
       <c r="H2">
-        <v>1.865168774836377</v>
+        <v>1.86516877483632</v>
       </c>
       <c r="I2">
-        <v>0.2085338944592081</v>
+        <v>0.2085338944592507</v>
       </c>
       <c r="J2">
         <v>0.8235532744008651</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.060722058732267</v>
+        <v>2.060722058732324</v>
       </c>
       <c r="C3">
-        <v>0.9919872733422608</v>
+        <v>0.9919872733424882</v>
       </c>
       <c r="D3">
-        <v>0.3182894114817572</v>
+        <v>0.3182894114822119</v>
       </c>
       <c r="E3">
-        <v>0.4938765854673974</v>
+        <v>0.4938765854674401</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.451932182568044</v>
+        <v>2.451932182568058</v>
       </c>
       <c r="H3">
-        <v>1.673030467436192</v>
+        <v>1.673030467436206</v>
       </c>
       <c r="I3">
-        <v>0.1780624833535747</v>
+        <v>0.1780624833535924</v>
       </c>
       <c r="J3">
-        <v>0.7061975745803792</v>
+        <v>0.706197574580429</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.856026307794281</v>
+        <v>1.856026307794451</v>
       </c>
       <c r="C4">
-        <v>0.8922884807934395</v>
+        <v>0.8922884807933258</v>
       </c>
       <c r="D4">
-        <v>0.2877166452357756</v>
+        <v>0.2877166452358324</v>
       </c>
       <c r="E4">
-        <v>0.4442568962566611</v>
+        <v>0.4442568962567037</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.265052075119698</v>
+        <v>2.265052075119726</v>
       </c>
       <c r="H4">
-        <v>1.559392018870923</v>
+        <v>1.559392018870952</v>
       </c>
       <c r="I4">
-        <v>0.1599114011510103</v>
+        <v>0.1599114011509997</v>
       </c>
       <c r="J4">
-        <v>0.6357722391501284</v>
+        <v>0.635772239150171</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>1.773556563860268</v>
       </c>
       <c r="C5">
-        <v>0.8522056777818534</v>
+        <v>0.8522056777818818</v>
       </c>
       <c r="D5">
-        <v>0.2754430617055874</v>
+        <v>0.275443061705559</v>
       </c>
       <c r="E5">
-        <v>0.4243514050207935</v>
+        <v>0.4243514050207864</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.190353890275716</v>
+        <v>2.19035389027573</v>
       </c>
       <c r="H5">
-        <v>1.514032461037345</v>
+        <v>1.51403246103736</v>
       </c>
       <c r="I5">
-        <v>0.1526327291651342</v>
+        <v>0.1526327291651235</v>
       </c>
       <c r="J5">
-        <v>0.6074184258675928</v>
+        <v>0.6074184258675785</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.759914783697525</v>
+        <v>1.759914783697496</v>
       </c>
       <c r="C6">
-        <v>0.8455801052414245</v>
+        <v>0.8455801052411971</v>
       </c>
       <c r="D6">
-        <v>0.2734153576838168</v>
+        <v>0.2734153576835752</v>
       </c>
       <c r="E6">
         <v>0.4210635636833118</v>
@@ -579,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.178032253436513</v>
+        <v>2.178032253436498</v>
       </c>
       <c r="H6">
         <v>1.506554024960849</v>
       </c>
       <c r="I6">
-        <v>0.1514306363739273</v>
+        <v>0.151430636373906</v>
       </c>
       <c r="J6">
-        <v>0.6027293734770609</v>
+        <v>0.602729373477068</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.854910485495907</v>
+        <v>1.854910485495623</v>
       </c>
       <c r="C7">
-        <v>0.8917458297923133</v>
+        <v>0.8917458297922849</v>
       </c>
       <c r="D7">
-        <v>0.287550409504874</v>
+        <v>0.2875504095052719</v>
       </c>
       <c r="E7">
-        <v>0.4439872405566376</v>
+        <v>0.4439872405566518</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>2.264039046971575</v>
       </c>
       <c r="H7">
-        <v>1.558776616723264</v>
+        <v>1.558776616723279</v>
       </c>
       <c r="I7">
-        <v>0.1598127881424745</v>
+        <v>0.1598127881424389</v>
       </c>
       <c r="J7">
-        <v>0.6353885332295661</v>
+        <v>0.635388533229559</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.282880083623297</v>
+        <v>2.282880083623581</v>
       </c>
       <c r="C8">
         <v>1.100525101988183</v>
       </c>
       <c r="D8">
-        <v>0.3516344208373425</v>
+        <v>0.3516344208375557</v>
       </c>
       <c r="E8">
-        <v>0.5480634318913715</v>
+        <v>0.548063431891336</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>2.656951048004075</v>
       </c>
       <c r="H8">
-        <v>1.797929652616389</v>
+        <v>1.797929652616403</v>
       </c>
       <c r="I8">
-        <v>0.1978970632210277</v>
+        <v>0.1978970632210348</v>
       </c>
       <c r="J8">
-        <v>0.782708687473658</v>
+        <v>0.7827086874736437</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.166956784461036</v>
+        <v>3.166956784460922</v>
       </c>
       <c r="C9">
-        <v>1.535796261819087</v>
+        <v>1.53579626181903</v>
       </c>
       <c r="D9">
-        <v>0.4858092834728893</v>
+        <v>0.4858092834733441</v>
       </c>
       <c r="E9">
-        <v>0.7669876885358207</v>
+        <v>0.7669876885358065</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>3.49207593966554</v>
       </c>
       <c r="H9">
-        <v>2.308644335433954</v>
+        <v>2.308644335433925</v>
       </c>
       <c r="I9">
-        <v>0.2781933885567511</v>
+        <v>0.2781933885567227</v>
       </c>
       <c r="J9">
-        <v>1.087962584274948</v>
+        <v>1.087962584274976</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.859334126427939</v>
+        <v>3.859334126427825</v>
       </c>
       <c r="C10">
-        <v>1.880343440033641</v>
+        <v>1.880343440033698</v>
       </c>
       <c r="D10">
-        <v>0.5923299607118508</v>
+        <v>0.5923299607117087</v>
       </c>
       <c r="E10">
-        <v>0.9419877752798271</v>
+        <v>0.9419877752797703</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.164218925961961</v>
+        <v>4.164218925961848</v>
       </c>
       <c r="H10">
-        <v>2.721409709776083</v>
+        <v>2.721409709776026</v>
       </c>
       <c r="I10">
-        <v>0.3425924620867917</v>
+        <v>0.342592462086742</v>
       </c>
       <c r="J10">
-        <v>1.327874778163419</v>
+        <v>1.327874778163348</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.18798190219303</v>
+        <v>4.187981902193144</v>
       </c>
       <c r="C11">
-        <v>2.045006015107106</v>
+        <v>2.045006015107845</v>
       </c>
       <c r="D11">
-        <v>0.6432894924437846</v>
+        <v>0.6432894924437278</v>
       </c>
       <c r="E11">
-        <v>1.02613134167953</v>
+        <v>1.026131341679516</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.488088600454461</v>
+        <v>4.488088600454432</v>
       </c>
       <c r="H11">
-        <v>2.920724860443869</v>
+        <v>2.920724860443926</v>
       </c>
       <c r="I11">
-        <v>0.373631181841894</v>
+        <v>0.3736311818419225</v>
       </c>
       <c r="J11">
-        <v>1.4420112296214</v>
+        <v>1.442011229621372</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.314856145003716</v>
+        <v>4.314856145003375</v>
       </c>
       <c r="C12">
-        <v>2.108767003168509</v>
+        <v>2.108767003167884</v>
       </c>
       <c r="D12">
-        <v>0.6630277312530097</v>
+        <v>0.6630277312532087</v>
       </c>
       <c r="E12">
         <v>1.05880092829662</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.61389513078953</v>
+        <v>4.613895130789558</v>
       </c>
       <c r="H12">
-        <v>2.99821387573266</v>
+        <v>2.998213875732688</v>
       </c>
       <c r="I12">
-        <v>0.385695912973695</v>
+        <v>0.3856959129737163</v>
       </c>
       <c r="J12">
         <v>1.486118082968758</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.287415487173462</v>
+        <v>4.287415487173519</v>
       </c>
       <c r="C13">
-        <v>2.094967489967985</v>
+        <v>2.094967489968269</v>
       </c>
       <c r="D13">
-        <v>0.6587556596630009</v>
+        <v>0.6587556596630861</v>
       </c>
       <c r="E13">
-        <v>1.051726267737067</v>
+        <v>1.051726267737124</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.586649535453603</v>
+        <v>4.586649535453574</v>
       </c>
       <c r="H13">
-        <v>2.981429312819174</v>
+        <v>2.981429312819145</v>
       </c>
       <c r="I13">
-        <v>0.3830826151895863</v>
+        <v>0.383082615189565</v>
       </c>
       <c r="J13">
-        <v>1.476576442658498</v>
+        <v>1.476576442658512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.198368425231479</v>
+        <v>4.198368425231536</v>
       </c>
       <c r="C14">
-        <v>2.050221740132145</v>
+        <v>2.050221740132542</v>
       </c>
       <c r="D14">
-        <v>0.644904005979015</v>
+        <v>0.6449040059794129</v>
       </c>
       <c r="E14">
-        <v>1.02880192563704</v>
+        <v>1.028801925637055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.498371740547611</v>
+        <v>4.498371740547555</v>
       </c>
       <c r="H14">
-        <v>2.927057311732383</v>
+        <v>2.927057311732369</v>
       </c>
       <c r="I14">
-        <v>0.3746171265129732</v>
+        <v>0.3746171265129874</v>
       </c>
       <c r="J14">
-        <v>1.445621090450828</v>
+        <v>1.445621090450814</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.144155125945986</v>
+        <v>4.144155125945701</v>
       </c>
       <c r="C15">
-        <v>2.02300578561352</v>
+        <v>2.023005785613577</v>
       </c>
       <c r="D15">
-        <v>0.6364795914596755</v>
+        <v>0.6364795914589081</v>
       </c>
       <c r="E15">
-        <v>1.014870250300007</v>
+        <v>1.014870250300049</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.444729702766637</v>
+        <v>4.44472970276658</v>
       </c>
       <c r="H15">
-        <v>2.89402669744274</v>
+        <v>2.894026697442726</v>
       </c>
       <c r="I15">
-        <v>0.3694742983585257</v>
+        <v>0.3694742983584973</v>
       </c>
       <c r="J15">
         <v>1.426780961804653</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.838168353096478</v>
+        <v>3.838168353096421</v>
       </c>
       <c r="C16">
-        <v>1.869763431386502</v>
+        <v>1.869763431386446</v>
       </c>
       <c r="D16">
-        <v>0.5890565553813758</v>
+        <v>0.5890565553818021</v>
       </c>
       <c r="E16">
-        <v>0.936592486797224</v>
+        <v>0.9365924867973376</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.14346301117348</v>
+        <v>4.143463011173509</v>
       </c>
       <c r="H16">
-        <v>2.708644865357698</v>
+        <v>2.708644865357726</v>
       </c>
       <c r="I16">
-        <v>0.3406039525523568</v>
+        <v>0.3406039525523852</v>
       </c>
       <c r="J16">
         <v>1.320529793850852</v>
@@ -985,28 +985,28 @@
         <v>3.654255415145371</v>
       </c>
       <c r="C17">
-        <v>1.777957558396565</v>
+        <v>1.777957558396395</v>
       </c>
       <c r="D17">
-        <v>0.5606577492646352</v>
+        <v>0.5606577492648341</v>
       </c>
       <c r="E17">
-        <v>0.8898328736707839</v>
+        <v>0.8898328736708123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.96364803437416</v>
+        <v>3.963648034374188</v>
       </c>
       <c r="H17">
-        <v>2.598105682867882</v>
+        <v>2.598105682867924</v>
       </c>
       <c r="I17">
-        <v>0.3233784067482901</v>
+        <v>0.3233784067483185</v>
       </c>
       <c r="J17">
-        <v>1.256737018883314</v>
+        <v>1.256737018883271</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>3.549729339857663</v>
       </c>
       <c r="C18">
-        <v>1.725880465484011</v>
+        <v>1.725880465484238</v>
       </c>
       <c r="D18">
-        <v>0.544553368324955</v>
+        <v>0.5445533683246424</v>
       </c>
       <c r="E18">
-        <v>0.8633539367470178</v>
+        <v>0.8633539367470604</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.861888302428241</v>
+        <v>3.861888302428156</v>
       </c>
       <c r="H18">
-        <v>2.535588495993537</v>
+        <v>2.535588495993494</v>
       </c>
       <c r="I18">
-        <v>0.3136305263349755</v>
+        <v>0.3136305263349541</v>
       </c>
       <c r="J18">
-        <v>1.220503887775081</v>
+        <v>1.22050388777501</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.514541881197204</v>
+        <v>3.514541881197374</v>
       </c>
       <c r="C19">
-        <v>1.708365694462316</v>
+        <v>1.708365694462259</v>
       </c>
       <c r="D19">
-        <v>0.5391379711026048</v>
+        <v>0.5391379711026332</v>
       </c>
       <c r="E19">
-        <v>0.8544558872771404</v>
+        <v>0.8544558872771262</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.827704899062894</v>
+        <v>3.827704899062866</v>
       </c>
       <c r="H19">
-        <v>2.514594032378895</v>
+        <v>2.514594032378866</v>
       </c>
       <c r="I19">
-        <v>0.3103558742390717</v>
+        <v>0.3103558742390433</v>
       </c>
       <c r="J19">
-        <v>1.208310220201369</v>
+        <v>1.208310220201355</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673700287678002</v>
+        <v>3.673700287678173</v>
       </c>
       <c r="C20">
-        <v>1.787653426454995</v>
+        <v>1.787653426455279</v>
       </c>
       <c r="D20">
-        <v>0.5636565257379971</v>
+        <v>0.5636565257380539</v>
       </c>
       <c r="E20">
-        <v>0.8947664518386915</v>
+        <v>0.8947664518386489</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.982613613707514</v>
+        <v>3.982613613707542</v>
       </c>
       <c r="H20">
-        <v>2.60976052187246</v>
+        <v>2.609760521872445</v>
       </c>
       <c r="I20">
-        <v>0.3251951610840678</v>
+        <v>0.3251951610840464</v>
       </c>
       <c r="J20">
-        <v>1.263479284233853</v>
+        <v>1.263479284233824</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>4.224453858815423</v>
       </c>
       <c r="C21">
-        <v>2.063324056107149</v>
+        <v>2.063324056107206</v>
       </c>
       <c r="D21">
         <v>0.6489598732129878</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.524210150256494</v>
+        <v>4.52421015025655</v>
       </c>
       <c r="H21">
-        <v>2.942969890455274</v>
+        <v>2.942969890455259</v>
       </c>
       <c r="I21">
-        <v>0.3770946554257293</v>
+        <v>0.377094655425708</v>
       </c>
       <c r="J21">
-        <v>1.454687879119902</v>
+        <v>1.454687879119973</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.59880859574173</v>
+        <v>4.598808595741787</v>
       </c>
       <c r="C22">
-        <v>2.25185954780784</v>
+        <v>2.251859547807953</v>
       </c>
       <c r="D22">
-        <v>0.7073318052947855</v>
+        <v>0.7073318052951265</v>
       </c>
       <c r="E22">
-        <v>1.132294984538447</v>
+        <v>1.132294984538476</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.896968442482375</v>
+        <v>4.896968442482262</v>
       </c>
       <c r="H22">
-        <v>3.172693346885453</v>
+        <v>3.172693346885367</v>
       </c>
       <c r="I22">
         <v>0.4128655931922083</v>
       </c>
       <c r="J22">
-        <v>1.58492219445678</v>
+        <v>1.584922194456752</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.397513664146459</v>
+        <v>4.397513664146686</v>
       </c>
       <c r="C23">
-        <v>2.150364800854675</v>
+        <v>2.150364800855243</v>
       </c>
       <c r="D23">
-        <v>0.6759062528475965</v>
+        <v>0.6759062528475681</v>
       </c>
       <c r="E23">
-        <v>1.080140838533822</v>
+        <v>1.080140838533794</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.696083464347794</v>
+        <v>4.696083464347765</v>
       </c>
       <c r="H23">
-        <v>3.048855462653719</v>
+        <v>3.048855462653705</v>
       </c>
       <c r="I23">
-        <v>0.3935808478095026</v>
+        <v>0.393580847809524</v>
       </c>
       <c r="J23">
-        <v>1.51486671403589</v>
+        <v>1.514866714035875</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664905531467696</v>
+        <v>3.664905531467866</v>
       </c>
       <c r="C24">
         <v>1.783267753188795</v>
       </c>
       <c r="D24">
-        <v>0.5623000918381535</v>
+        <v>0.5623000918380967</v>
       </c>
       <c r="E24">
-        <v>0.8925347346136192</v>
+        <v>0.8925347346135482</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>3.974034275390437</v>
       </c>
       <c r="H24">
-        <v>2.60448817640318</v>
+        <v>2.604488176403194</v>
       </c>
       <c r="I24">
-        <v>0.3243733270490168</v>
+        <v>0.3243733270490452</v>
       </c>
       <c r="J24">
-        <v>1.26042974089269</v>
+        <v>1.260429740892647</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921544781354214</v>
+        <v>2.921544781354271</v>
       </c>
       <c r="C25">
         <v>1.414439769884325</v>
@@ -1295,22 +1295,22 @@
         <v>0.4483438429456612</v>
       </c>
       <c r="E25">
-        <v>0.7057007832028432</v>
+        <v>0.7057007832028859</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.257443118064103</v>
+        <v>3.257443118064117</v>
       </c>
       <c r="H25">
-        <v>2.164883746632654</v>
+        <v>2.164883746632682</v>
       </c>
       <c r="I25">
-        <v>0.2556866512295173</v>
+        <v>0.2556866512295315</v>
       </c>
       <c r="J25">
-        <v>1.003103897190954</v>
+        <v>1.00310389719094</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>2.401381865012524</v>
       </c>
       <c r="C2">
-        <v>1.158560536224286</v>
+        <v>1.158560536224741</v>
       </c>
       <c r="D2">
-        <v>0.369486542325717</v>
+        <v>0.3694865423252338</v>
       </c>
       <c r="E2">
-        <v>0.5771062099354651</v>
+        <v>0.577106209935458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.767176277890258</v>
+        <v>2.7671762778903</v>
       </c>
       <c r="H2">
-        <v>1.86516877483632</v>
+        <v>1.865168774836377</v>
       </c>
       <c r="I2">
-        <v>0.2085338944592507</v>
+        <v>0.2085338944592081</v>
       </c>
       <c r="J2">
         <v>0.8235532744008651</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.060722058732324</v>
+        <v>2.060722058732267</v>
       </c>
       <c r="C3">
-        <v>0.9919872733424882</v>
+        <v>0.9919872733422608</v>
       </c>
       <c r="D3">
-        <v>0.3182894114822119</v>
+        <v>0.3182894114817572</v>
       </c>
       <c r="E3">
-        <v>0.4938765854674401</v>
+        <v>0.4938765854673974</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.451932182568058</v>
+        <v>2.451932182568044</v>
       </c>
       <c r="H3">
-        <v>1.673030467436206</v>
+        <v>1.673030467436192</v>
       </c>
       <c r="I3">
-        <v>0.1780624833535924</v>
+        <v>0.1780624833535747</v>
       </c>
       <c r="J3">
-        <v>0.706197574580429</v>
+        <v>0.7061975745803792</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.856026307794451</v>
+        <v>1.856026307794281</v>
       </c>
       <c r="C4">
-        <v>0.8922884807933258</v>
+        <v>0.8922884807934395</v>
       </c>
       <c r="D4">
-        <v>0.2877166452358324</v>
+        <v>0.2877166452357756</v>
       </c>
       <c r="E4">
-        <v>0.4442568962567037</v>
+        <v>0.4442568962566611</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.265052075119726</v>
+        <v>2.265052075119698</v>
       </c>
       <c r="H4">
-        <v>1.559392018870952</v>
+        <v>1.559392018870923</v>
       </c>
       <c r="I4">
-        <v>0.1599114011509997</v>
+        <v>0.1599114011510103</v>
       </c>
       <c r="J4">
-        <v>0.635772239150171</v>
+        <v>0.6357722391501284</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>1.773556563860268</v>
       </c>
       <c r="C5">
-        <v>0.8522056777818818</v>
+        <v>0.8522056777818534</v>
       </c>
       <c r="D5">
-        <v>0.275443061705559</v>
+        <v>0.2754430617055874</v>
       </c>
       <c r="E5">
-        <v>0.4243514050207864</v>
+        <v>0.4243514050207935</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.19035389027573</v>
+        <v>2.190353890275716</v>
       </c>
       <c r="H5">
-        <v>1.51403246103736</v>
+        <v>1.514032461037345</v>
       </c>
       <c r="I5">
-        <v>0.1526327291651235</v>
+        <v>0.1526327291651342</v>
       </c>
       <c r="J5">
-        <v>0.6074184258675785</v>
+        <v>0.6074184258675928</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.759914783697496</v>
+        <v>1.759914783697525</v>
       </c>
       <c r="C6">
-        <v>0.8455801052411971</v>
+        <v>0.8455801052414245</v>
       </c>
       <c r="D6">
-        <v>0.2734153576835752</v>
+        <v>0.2734153576838168</v>
       </c>
       <c r="E6">
         <v>0.4210635636833118</v>
@@ -579,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.178032253436498</v>
+        <v>2.178032253436513</v>
       </c>
       <c r="H6">
         <v>1.506554024960849</v>
       </c>
       <c r="I6">
-        <v>0.151430636373906</v>
+        <v>0.1514306363739273</v>
       </c>
       <c r="J6">
-        <v>0.602729373477068</v>
+        <v>0.6027293734770609</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.854910485495623</v>
+        <v>1.854910485495907</v>
       </c>
       <c r="C7">
-        <v>0.8917458297922849</v>
+        <v>0.8917458297923133</v>
       </c>
       <c r="D7">
-        <v>0.2875504095052719</v>
+        <v>0.287550409504874</v>
       </c>
       <c r="E7">
-        <v>0.4439872405566518</v>
+        <v>0.4439872405566376</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>2.264039046971575</v>
       </c>
       <c r="H7">
-        <v>1.558776616723279</v>
+        <v>1.558776616723264</v>
       </c>
       <c r="I7">
-        <v>0.1598127881424389</v>
+        <v>0.1598127881424745</v>
       </c>
       <c r="J7">
-        <v>0.635388533229559</v>
+        <v>0.6353885332295661</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.282880083623581</v>
+        <v>2.282880083623297</v>
       </c>
       <c r="C8">
         <v>1.100525101988183</v>
       </c>
       <c r="D8">
-        <v>0.3516344208375557</v>
+        <v>0.3516344208373425</v>
       </c>
       <c r="E8">
-        <v>0.548063431891336</v>
+        <v>0.5480634318913715</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>2.656951048004075</v>
       </c>
       <c r="H8">
-        <v>1.797929652616403</v>
+        <v>1.797929652616389</v>
       </c>
       <c r="I8">
-        <v>0.1978970632210348</v>
+        <v>0.1978970632210277</v>
       </c>
       <c r="J8">
-        <v>0.7827086874736437</v>
+        <v>0.782708687473658</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.166956784460922</v>
+        <v>3.166956784461036</v>
       </c>
       <c r="C9">
-        <v>1.53579626181903</v>
+        <v>1.535796261819087</v>
       </c>
       <c r="D9">
-        <v>0.4858092834733441</v>
+        <v>0.4858092834728893</v>
       </c>
       <c r="E9">
-        <v>0.7669876885358065</v>
+        <v>0.7669876885358207</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>3.49207593966554</v>
       </c>
       <c r="H9">
-        <v>2.308644335433925</v>
+        <v>2.308644335433954</v>
       </c>
       <c r="I9">
-        <v>0.2781933885567227</v>
+        <v>0.2781933885567511</v>
       </c>
       <c r="J9">
-        <v>1.087962584274976</v>
+        <v>1.087962584274948</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.859334126427825</v>
+        <v>3.859334126427939</v>
       </c>
       <c r="C10">
-        <v>1.880343440033698</v>
+        <v>1.880343440033641</v>
       </c>
       <c r="D10">
-        <v>0.5923299607117087</v>
+        <v>0.5923299607118508</v>
       </c>
       <c r="E10">
-        <v>0.9419877752797703</v>
+        <v>0.9419877752798271</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.164218925961848</v>
+        <v>4.164218925961961</v>
       </c>
       <c r="H10">
-        <v>2.721409709776026</v>
+        <v>2.721409709776083</v>
       </c>
       <c r="I10">
-        <v>0.342592462086742</v>
+        <v>0.3425924620867917</v>
       </c>
       <c r="J10">
-        <v>1.327874778163348</v>
+        <v>1.327874778163419</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187981902193144</v>
+        <v>4.18798190219303</v>
       </c>
       <c r="C11">
-        <v>2.045006015107845</v>
+        <v>2.045006015107106</v>
       </c>
       <c r="D11">
-        <v>0.6432894924437278</v>
+        <v>0.6432894924437846</v>
       </c>
       <c r="E11">
-        <v>1.026131341679516</v>
+        <v>1.02613134167953</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.488088600454432</v>
+        <v>4.488088600454461</v>
       </c>
       <c r="H11">
-        <v>2.920724860443926</v>
+        <v>2.920724860443869</v>
       </c>
       <c r="I11">
-        <v>0.3736311818419225</v>
+        <v>0.373631181841894</v>
       </c>
       <c r="J11">
-        <v>1.442011229621372</v>
+        <v>1.4420112296214</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.314856145003375</v>
+        <v>4.314856145003716</v>
       </c>
       <c r="C12">
-        <v>2.108767003167884</v>
+        <v>2.108767003168509</v>
       </c>
       <c r="D12">
-        <v>0.6630277312532087</v>
+        <v>0.6630277312530097</v>
       </c>
       <c r="E12">
         <v>1.05880092829662</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.613895130789558</v>
+        <v>4.61389513078953</v>
       </c>
       <c r="H12">
-        <v>2.998213875732688</v>
+        <v>2.99821387573266</v>
       </c>
       <c r="I12">
-        <v>0.3856959129737163</v>
+        <v>0.385695912973695</v>
       </c>
       <c r="J12">
         <v>1.486118082968758</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.287415487173519</v>
+        <v>4.287415487173462</v>
       </c>
       <c r="C13">
-        <v>2.094967489968269</v>
+        <v>2.094967489967985</v>
       </c>
       <c r="D13">
-        <v>0.6587556596630861</v>
+        <v>0.6587556596630009</v>
       </c>
       <c r="E13">
-        <v>1.051726267737124</v>
+        <v>1.051726267737067</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.586649535453574</v>
+        <v>4.586649535453603</v>
       </c>
       <c r="H13">
-        <v>2.981429312819145</v>
+        <v>2.981429312819174</v>
       </c>
       <c r="I13">
-        <v>0.383082615189565</v>
+        <v>0.3830826151895863</v>
       </c>
       <c r="J13">
-        <v>1.476576442658512</v>
+        <v>1.476576442658498</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.198368425231536</v>
+        <v>4.198368425231479</v>
       </c>
       <c r="C14">
-        <v>2.050221740132542</v>
+        <v>2.050221740132145</v>
       </c>
       <c r="D14">
-        <v>0.6449040059794129</v>
+        <v>0.644904005979015</v>
       </c>
       <c r="E14">
-        <v>1.028801925637055</v>
+        <v>1.02880192563704</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.498371740547555</v>
+        <v>4.498371740547611</v>
       </c>
       <c r="H14">
-        <v>2.927057311732369</v>
+        <v>2.927057311732383</v>
       </c>
       <c r="I14">
-        <v>0.3746171265129874</v>
+        <v>0.3746171265129732</v>
       </c>
       <c r="J14">
-        <v>1.445621090450814</v>
+        <v>1.445621090450828</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.144155125945701</v>
+        <v>4.144155125945986</v>
       </c>
       <c r="C15">
-        <v>2.023005785613577</v>
+        <v>2.02300578561352</v>
       </c>
       <c r="D15">
-        <v>0.6364795914589081</v>
+        <v>0.6364795914596755</v>
       </c>
       <c r="E15">
-        <v>1.014870250300049</v>
+        <v>1.014870250300007</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.44472970276658</v>
+        <v>4.444729702766637</v>
       </c>
       <c r="H15">
-        <v>2.894026697442726</v>
+        <v>2.89402669744274</v>
       </c>
       <c r="I15">
-        <v>0.3694742983584973</v>
+        <v>0.3694742983585257</v>
       </c>
       <c r="J15">
         <v>1.426780961804653</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.838168353096421</v>
+        <v>3.838168353096478</v>
       </c>
       <c r="C16">
-        <v>1.869763431386446</v>
+        <v>1.869763431386502</v>
       </c>
       <c r="D16">
-        <v>0.5890565553818021</v>
+        <v>0.5890565553813758</v>
       </c>
       <c r="E16">
-        <v>0.9365924867973376</v>
+        <v>0.936592486797224</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.143463011173509</v>
+        <v>4.14346301117348</v>
       </c>
       <c r="H16">
-        <v>2.708644865357726</v>
+        <v>2.708644865357698</v>
       </c>
       <c r="I16">
-        <v>0.3406039525523852</v>
+        <v>0.3406039525523568</v>
       </c>
       <c r="J16">
         <v>1.320529793850852</v>
@@ -985,28 +985,28 @@
         <v>3.654255415145371</v>
       </c>
       <c r="C17">
-        <v>1.777957558396395</v>
+        <v>1.777957558396565</v>
       </c>
       <c r="D17">
-        <v>0.5606577492648341</v>
+        <v>0.5606577492646352</v>
       </c>
       <c r="E17">
-        <v>0.8898328736708123</v>
+        <v>0.8898328736707839</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.963648034374188</v>
+        <v>3.96364803437416</v>
       </c>
       <c r="H17">
-        <v>2.598105682867924</v>
+        <v>2.598105682867882</v>
       </c>
       <c r="I17">
-        <v>0.3233784067483185</v>
+        <v>0.3233784067482901</v>
       </c>
       <c r="J17">
-        <v>1.256737018883271</v>
+        <v>1.256737018883314</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>3.549729339857663</v>
       </c>
       <c r="C18">
-        <v>1.725880465484238</v>
+        <v>1.725880465484011</v>
       </c>
       <c r="D18">
-        <v>0.5445533683246424</v>
+        <v>0.544553368324955</v>
       </c>
       <c r="E18">
-        <v>0.8633539367470604</v>
+        <v>0.8633539367470178</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.861888302428156</v>
+        <v>3.861888302428241</v>
       </c>
       <c r="H18">
-        <v>2.535588495993494</v>
+        <v>2.535588495993537</v>
       </c>
       <c r="I18">
-        <v>0.3136305263349541</v>
+        <v>0.3136305263349755</v>
       </c>
       <c r="J18">
-        <v>1.22050388777501</v>
+        <v>1.220503887775081</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.514541881197374</v>
+        <v>3.514541881197204</v>
       </c>
       <c r="C19">
-        <v>1.708365694462259</v>
+        <v>1.708365694462316</v>
       </c>
       <c r="D19">
-        <v>0.5391379711026332</v>
+        <v>0.5391379711026048</v>
       </c>
       <c r="E19">
-        <v>0.8544558872771262</v>
+        <v>0.8544558872771404</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.827704899062866</v>
+        <v>3.827704899062894</v>
       </c>
       <c r="H19">
-        <v>2.514594032378866</v>
+        <v>2.514594032378895</v>
       </c>
       <c r="I19">
-        <v>0.3103558742390433</v>
+        <v>0.3103558742390717</v>
       </c>
       <c r="J19">
-        <v>1.208310220201355</v>
+        <v>1.208310220201369</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673700287678173</v>
+        <v>3.673700287678002</v>
       </c>
       <c r="C20">
-        <v>1.787653426455279</v>
+        <v>1.787653426454995</v>
       </c>
       <c r="D20">
-        <v>0.5636565257380539</v>
+        <v>0.5636565257379971</v>
       </c>
       <c r="E20">
-        <v>0.8947664518386489</v>
+        <v>0.8947664518386915</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.982613613707542</v>
+        <v>3.982613613707514</v>
       </c>
       <c r="H20">
-        <v>2.609760521872445</v>
+        <v>2.60976052187246</v>
       </c>
       <c r="I20">
-        <v>0.3251951610840464</v>
+        <v>0.3251951610840678</v>
       </c>
       <c r="J20">
-        <v>1.263479284233824</v>
+        <v>1.263479284233853</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>4.224453858815423</v>
       </c>
       <c r="C21">
-        <v>2.063324056107206</v>
+        <v>2.063324056107149</v>
       </c>
       <c r="D21">
         <v>0.6489598732129878</v>
@@ -1149,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.52421015025655</v>
+        <v>4.524210150256494</v>
       </c>
       <c r="H21">
-        <v>2.942969890455259</v>
+        <v>2.942969890455274</v>
       </c>
       <c r="I21">
-        <v>0.377094655425708</v>
+        <v>0.3770946554257293</v>
       </c>
       <c r="J21">
-        <v>1.454687879119973</v>
+        <v>1.454687879119902</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.598808595741787</v>
+        <v>4.59880859574173</v>
       </c>
       <c r="C22">
-        <v>2.251859547807953</v>
+        <v>2.25185954780784</v>
       </c>
       <c r="D22">
-        <v>0.7073318052951265</v>
+        <v>0.7073318052947855</v>
       </c>
       <c r="E22">
-        <v>1.132294984538476</v>
+        <v>1.132294984538447</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.896968442482262</v>
+        <v>4.896968442482375</v>
       </c>
       <c r="H22">
-        <v>3.172693346885367</v>
+        <v>3.172693346885453</v>
       </c>
       <c r="I22">
         <v>0.4128655931922083</v>
       </c>
       <c r="J22">
-        <v>1.584922194456752</v>
+        <v>1.58492219445678</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.397513664146686</v>
+        <v>4.397513664146459</v>
       </c>
       <c r="C23">
-        <v>2.150364800855243</v>
+        <v>2.150364800854675</v>
       </c>
       <c r="D23">
-        <v>0.6759062528475681</v>
+        <v>0.6759062528475965</v>
       </c>
       <c r="E23">
-        <v>1.080140838533794</v>
+        <v>1.080140838533822</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.696083464347765</v>
+        <v>4.696083464347794</v>
       </c>
       <c r="H23">
-        <v>3.048855462653705</v>
+        <v>3.048855462653719</v>
       </c>
       <c r="I23">
-        <v>0.393580847809524</v>
+        <v>0.3935808478095026</v>
       </c>
       <c r="J23">
-        <v>1.514866714035875</v>
+        <v>1.51486671403589</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664905531467866</v>
+        <v>3.664905531467696</v>
       </c>
       <c r="C24">
         <v>1.783267753188795</v>
       </c>
       <c r="D24">
-        <v>0.5623000918380967</v>
+        <v>0.5623000918381535</v>
       </c>
       <c r="E24">
-        <v>0.8925347346135482</v>
+        <v>0.8925347346136192</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>3.974034275390437</v>
       </c>
       <c r="H24">
-        <v>2.604488176403194</v>
+        <v>2.60448817640318</v>
       </c>
       <c r="I24">
-        <v>0.3243733270490452</v>
+        <v>0.3243733270490168</v>
       </c>
       <c r="J24">
-        <v>1.260429740892647</v>
+        <v>1.26042974089269</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921544781354271</v>
+        <v>2.921544781354214</v>
       </c>
       <c r="C25">
         <v>1.414439769884325</v>
@@ -1295,22 +1295,22 @@
         <v>0.4483438429456612</v>
       </c>
       <c r="E25">
-        <v>0.7057007832028859</v>
+        <v>0.7057007832028432</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.257443118064117</v>
+        <v>3.257443118064103</v>
       </c>
       <c r="H25">
-        <v>2.164883746632682</v>
+        <v>2.164883746632654</v>
       </c>
       <c r="I25">
-        <v>0.2556866512295315</v>
+        <v>0.2556866512295173</v>
       </c>
       <c r="J25">
-        <v>1.00310389719094</v>
+        <v>1.003103897190954</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.401381865012524</v>
+        <v>2.40129470636856</v>
       </c>
       <c r="C2">
-        <v>1.158560536224741</v>
+        <v>1.157384336007112</v>
       </c>
       <c r="D2">
-        <v>0.3694865423252338</v>
+        <v>0.3694686791786523</v>
       </c>
       <c r="E2">
-        <v>0.577106209935458</v>
+        <v>0.5770761849600063</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.7671762778903</v>
+        <v>0.8964405612402402</v>
       </c>
       <c r="H2">
-        <v>1.865168774836377</v>
+        <v>1.865790018357174</v>
       </c>
       <c r="I2">
-        <v>0.2085338944592081</v>
+        <v>1.859709663064763</v>
       </c>
       <c r="J2">
-        <v>0.8235532744008651</v>
+        <v>0.2085227827802782</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8232583555397071</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.060722058732267</v>
+        <v>2.06070847202875</v>
       </c>
       <c r="C3">
-        <v>0.9919872733422608</v>
+        <v>0.9909938968215499</v>
       </c>
       <c r="D3">
-        <v>0.3182894114817572</v>
+        <v>0.3182788254703013</v>
       </c>
       <c r="E3">
-        <v>0.4938765854673974</v>
+        <v>0.4938587421411924</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.451932182568044</v>
+        <v>0.7881607669017825</v>
       </c>
       <c r="H3">
-        <v>1.673030467436192</v>
+        <v>1.660044198683266</v>
       </c>
       <c r="I3">
-        <v>0.1780624833535747</v>
+        <v>1.668239279078591</v>
       </c>
       <c r="J3">
-        <v>0.7061975745803792</v>
+        <v>0.1780558790019526</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7059622615711589</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.856026307794281</v>
+        <v>1.856047561325767</v>
       </c>
       <c r="C4">
-        <v>0.8922884807934395</v>
+        <v>0.891400858979523</v>
       </c>
       <c r="D4">
-        <v>0.2877166452357756</v>
+        <v>0.2877096213079682</v>
       </c>
       <c r="E4">
-        <v>0.4442568962566611</v>
+        <v>0.4442450190307454</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.265052075119698</v>
+        <v>0.7238740632330547</v>
       </c>
       <c r="H4">
-        <v>1.559392018870923</v>
+        <v>1.538179286551852</v>
       </c>
       <c r="I4">
-        <v>0.1599114011510103</v>
+        <v>1.55500125658466</v>
       </c>
       <c r="J4">
-        <v>0.6357722391501284</v>
+        <v>0.1599070026749807</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6355696434025333</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.773556563860268</v>
+        <v>1.773589811869073</v>
       </c>
       <c r="C5">
-        <v>0.8522056777818534</v>
+        <v>0.8513597880931911</v>
       </c>
       <c r="D5">
-        <v>0.2754430617055874</v>
+        <v>0.275437304691053</v>
       </c>
       <c r="E5">
-        <v>0.4243514050207935</v>
+        <v>0.4243416531591038</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.190353890275716</v>
+        <v>0.698153907217673</v>
       </c>
       <c r="H5">
-        <v>1.514032461037345</v>
+        <v>1.489494061121604</v>
       </c>
       <c r="I5">
-        <v>0.1526327291651342</v>
+        <v>1.509802903943978</v>
       </c>
       <c r="J5">
-        <v>0.6074184258675928</v>
+        <v>0.1526291165100844</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.607228340344129</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.759914783697525</v>
+        <v>1.759949900737439</v>
       </c>
       <c r="C6">
-        <v>0.8455801052414245</v>
+        <v>0.844741069934372</v>
       </c>
       <c r="D6">
-        <v>0.2734153576838168</v>
+        <v>0.2734098010058261</v>
       </c>
       <c r="E6">
-        <v>0.4210635636833118</v>
+        <v>0.4210541481875723</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.178032253436513</v>
+        <v>0.6939098686119536</v>
       </c>
       <c r="H6">
-        <v>1.506554024960849</v>
+        <v>1.481464860873757</v>
       </c>
       <c r="I6">
-        <v>0.1514306363739273</v>
+        <v>1.502351129146902</v>
       </c>
       <c r="J6">
-        <v>0.6027293734770609</v>
+        <v>0.1514271480962535</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.602541319656865</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.854910485495907</v>
+        <v>1.854931909230999</v>
       </c>
       <c r="C7">
-        <v>0.8917458297923133</v>
+        <v>0.8908587759858335</v>
       </c>
       <c r="D7">
-        <v>0.287550409504874</v>
+        <v>0.2875434033595496</v>
       </c>
       <c r="E7">
-        <v>0.4439872405566376</v>
+        <v>0.4439753931438801</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.264039046971575</v>
+        <v>0.7235253536761803</v>
       </c>
       <c r="H7">
-        <v>1.558776616723264</v>
+        <v>1.53751893217914</v>
       </c>
       <c r="I7">
-        <v>0.1598127881424745</v>
+        <v>1.554388035923139</v>
       </c>
       <c r="J7">
-        <v>0.6353885332295661</v>
+        <v>0.1598084006888598</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6351861093425484</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.282880083623297</v>
+        <v>2.282820695342423</v>
       </c>
       <c r="C8">
-        <v>1.100525101988183</v>
+        <v>1.099413464770748</v>
       </c>
       <c r="D8">
-        <v>0.3516344208373425</v>
+        <v>0.3516192834826057</v>
       </c>
       <c r="E8">
-        <v>0.5480634318913715</v>
+        <v>0.5480379709514906</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.656951048004075</v>
+        <v>0.8586014531403947</v>
       </c>
       <c r="H8">
-        <v>1.797929652616389</v>
+        <v>1.79382867852263</v>
       </c>
       <c r="I8">
-        <v>0.1978970632210277</v>
+        <v>1.792703149735104</v>
       </c>
       <c r="J8">
-        <v>0.782708687473658</v>
+        <v>0.1978876409901567</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7824352264222938</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.166956784461036</v>
+        <v>3.166635108084677</v>
       </c>
       <c r="C9">
-        <v>1.535796261819087</v>
+        <v>1.534177778911612</v>
       </c>
       <c r="D9">
-        <v>0.4858092834728893</v>
+        <v>0.4857685442426032</v>
       </c>
       <c r="E9">
-        <v>0.7669876885358207</v>
+        <v>0.7669191972470344</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.49207593966554</v>
+        <v>1.144847270458342</v>
       </c>
       <c r="H9">
-        <v>2.308644335433954</v>
+        <v>2.339511671193208</v>
       </c>
       <c r="I9">
-        <v>0.2781933885567511</v>
+        <v>2.301672878455108</v>
       </c>
       <c r="J9">
-        <v>1.087962584274948</v>
+        <v>0.2781679979968459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.087510561280453</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.859334126427939</v>
+        <v>3.858717580956693</v>
       </c>
       <c r="C10">
-        <v>1.880343440033641</v>
+        <v>1.878285783848412</v>
       </c>
       <c r="D10">
-        <v>0.5923299607118508</v>
+        <v>0.5922599570769762</v>
       </c>
       <c r="E10">
-        <v>0.9419877752798271</v>
+        <v>0.9418695732060911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.164218925961961</v>
+        <v>1.374656279337728</v>
       </c>
       <c r="H10">
-        <v>2.721409709776083</v>
+        <v>2.779292274769034</v>
       </c>
       <c r="I10">
-        <v>0.3425924620867917</v>
+        <v>2.713050994556397</v>
       </c>
       <c r="J10">
-        <v>1.327874778163419</v>
+        <v>0.3425485187370612</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.327252597002158</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.18798190219303</v>
+        <v>4.187196922716169</v>
       </c>
       <c r="C11">
-        <v>2.045006015107106</v>
+        <v>2.042725955399931</v>
       </c>
       <c r="D11">
-        <v>0.6432894924437846</v>
+        <v>0.6432024156399905</v>
       </c>
       <c r="E11">
-        <v>1.02613134167953</v>
+        <v>1.025983887490341</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.488088600454461</v>
+        <v>1.485253486434516</v>
       </c>
       <c r="H11">
-        <v>2.920724860443869</v>
+        <v>2.991334472465866</v>
       </c>
       <c r="I11">
-        <v>0.373631181841894</v>
+        <v>2.911699272717783</v>
       </c>
       <c r="J11">
-        <v>1.4420112296214</v>
+        <v>0.3735762752744094</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.441298512830343</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.314856145003716</v>
+        <v>4.314001063675562</v>
       </c>
       <c r="C12">
-        <v>2.108767003168509</v>
+        <v>2.106398549432015</v>
       </c>
       <c r="D12">
-        <v>0.6630277312530097</v>
+        <v>0.6629334714353661</v>
       </c>
       <c r="E12">
-        <v>1.05880092829662</v>
+        <v>1.058641115467097</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.61389513078953</v>
+        <v>1.528194278498603</v>
       </c>
       <c r="H12">
-        <v>2.99821387573266</v>
+        <v>3.073721801847455</v>
       </c>
       <c r="I12">
-        <v>0.385695912973695</v>
+        <v>2.988929179562817</v>
       </c>
       <c r="J12">
-        <v>1.486118082968758</v>
+        <v>0.3856363653610586</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.485368661294046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.287415487173462</v>
+        <v>4.286575811107411</v>
       </c>
       <c r="C13">
-        <v>2.094967489967985</v>
+        <v>2.092618276683424</v>
       </c>
       <c r="D13">
-        <v>0.6587556596630009</v>
+        <v>0.6586629822018324</v>
       </c>
       <c r="E13">
-        <v>1.051726267737067</v>
+        <v>1.051569179969576</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.586649535453603</v>
+        <v>1.51889562640585</v>
       </c>
       <c r="H13">
-        <v>2.981429312819174</v>
+        <v>3.055878499515643</v>
       </c>
       <c r="I13">
-        <v>0.3830826151895863</v>
+        <v>2.972200739744807</v>
       </c>
       <c r="J13">
-        <v>1.476576442658498</v>
+        <v>0.3830240913733789</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.475835043879613</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.198368425231479</v>
+        <v>4.197577814485669</v>
       </c>
       <c r="C14">
-        <v>2.050221740132145</v>
+        <v>2.047934498083862</v>
       </c>
       <c r="D14">
-        <v>0.644904005979015</v>
+        <v>0.6448163538289293</v>
       </c>
       <c r="E14">
-        <v>1.02880192563704</v>
+        <v>1.028653482646945</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.498371740547611</v>
+        <v>1.488763782306791</v>
       </c>
       <c r="H14">
-        <v>2.927057311732383</v>
+        <v>2.998068226488385</v>
       </c>
       <c r="I14">
-        <v>0.3746171265129732</v>
+        <v>2.918010548382483</v>
       </c>
       <c r="J14">
-        <v>1.445621090450828</v>
+        <v>0.3745618488162634</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.444905406052897</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.144155125945986</v>
+        <v>4.143393698097213</v>
       </c>
       <c r="C15">
-        <v>2.02300578561352</v>
+        <v>2.02075592726186</v>
       </c>
       <c r="D15">
-        <v>0.6364795914596755</v>
+        <v>0.6363949177611232</v>
       </c>
       <c r="E15">
-        <v>1.014870250300007</v>
+        <v>1.014726924026036</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.444729702766637</v>
+        <v>1.470451486512275</v>
       </c>
       <c r="H15">
-        <v>2.89402669744274</v>
+        <v>2.962942374551773</v>
       </c>
       <c r="I15">
-        <v>0.3694742983585257</v>
+        <v>2.885090392269248</v>
       </c>
       <c r="J15">
-        <v>1.426780961804653</v>
+        <v>0.3694209407588644</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.426080694493649</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.838168353096478</v>
+        <v>3.837562015146432</v>
       </c>
       <c r="C16">
-        <v>1.869763431386502</v>
+        <v>1.867719781485334</v>
       </c>
       <c r="D16">
-        <v>0.5890565553813758</v>
+        <v>0.5889875779437546</v>
       </c>
       <c r="E16">
-        <v>0.936592486797224</v>
+        <v>0.9364760372619401</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.14346301117348</v>
+        <v>1.36756566820651</v>
       </c>
       <c r="H16">
-        <v>2.708644865357698</v>
+        <v>2.765705777432373</v>
       </c>
       <c r="I16">
-        <v>0.3406039525523568</v>
+        <v>2.700328897328731</v>
       </c>
       <c r="J16">
-        <v>1.320529793850852</v>
+        <v>0.3405606650052491</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.319913222967486</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.654255415145371</v>
+        <v>3.65373456469348</v>
       </c>
       <c r="C17">
-        <v>1.777957558396565</v>
+        <v>1.776034036837018</v>
       </c>
       <c r="D17">
-        <v>0.5606577492646352</v>
+        <v>0.5605973282109744</v>
       </c>
       <c r="E17">
-        <v>0.8898328736707839</v>
+        <v>0.8897310108145433</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.96364803437416</v>
+        <v>1.306122702882021</v>
       </c>
       <c r="H17">
-        <v>2.598105682867882</v>
+        <v>2.648016451865089</v>
       </c>
       <c r="I17">
-        <v>0.3233784067482901</v>
+        <v>2.590160193601406</v>
       </c>
       <c r="J17">
-        <v>1.256737018883314</v>
+        <v>0.3233405728503556</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.256168095360607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.549729339857663</v>
+        <v>3.549254533621138</v>
       </c>
       <c r="C18">
-        <v>1.725880465484011</v>
+        <v>1.724023977002275</v>
       </c>
       <c r="D18">
-        <v>0.544553368324955</v>
+        <v>0.5444975279656319</v>
       </c>
       <c r="E18">
-        <v>0.8633539367470178</v>
+        <v>0.8632598635902724</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.861888302428241</v>
+        <v>1.271339052624313</v>
       </c>
       <c r="H18">
-        <v>2.535588495993537</v>
+        <v>2.581426755598557</v>
       </c>
       <c r="I18">
-        <v>0.3136305263349755</v>
+        <v>2.52785283020782</v>
       </c>
       <c r="J18">
-        <v>1.220503887775081</v>
+        <v>0.3135956012972017</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.219961173119273</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.514541881197204</v>
+        <v>3.51408216406935</v>
       </c>
       <c r="C19">
-        <v>1.708365694462316</v>
+        <v>1.706531572281335</v>
       </c>
       <c r="D19">
-        <v>0.5391379711026048</v>
+        <v>0.5390836277104825</v>
       </c>
       <c r="E19">
-        <v>0.8544558872771404</v>
+        <v>0.8543643568137753</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.827704899062894</v>
+        <v>1.259652359324406</v>
       </c>
       <c r="H19">
-        <v>2.514594032378895</v>
+        <v>2.55905986127712</v>
       </c>
       <c r="I19">
-        <v>0.3103558742390717</v>
+        <v>2.50692888614023</v>
       </c>
       <c r="J19">
-        <v>1.208310220201369</v>
+        <v>0.3103218981536102</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.207776187818439</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673700287678002</v>
+        <v>3.673170669289334</v>
       </c>
       <c r="C20">
-        <v>1.787653426454995</v>
+        <v>1.785717336274786</v>
       </c>
       <c r="D20">
-        <v>0.5636565257379971</v>
+        <v>0.563595230214645</v>
       </c>
       <c r="E20">
-        <v>0.8947664518386915</v>
+        <v>0.8946631003572065</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.982613613707514</v>
+        <v>1.312604542773499</v>
       </c>
       <c r="H20">
-        <v>2.60976052187246</v>
+        <v>2.66042818504647</v>
       </c>
       <c r="I20">
-        <v>0.3251951610840678</v>
+        <v>2.601775941753985</v>
       </c>
       <c r="J20">
-        <v>1.263479284233853</v>
+        <v>0.3251567710127361</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.262905415810494</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.224453858815423</v>
+        <v>4.223649020988773</v>
       </c>
       <c r="C21">
-        <v>2.063324056107149</v>
+        <v>2.061018733565675</v>
       </c>
       <c r="D21">
-        <v>0.6489598732129878</v>
+        <v>0.6488707661841886</v>
       </c>
       <c r="E21">
-        <v>1.03551208171011</v>
+        <v>1.035361137476642</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.524210150256494</v>
+        <v>1.497583762468565</v>
       </c>
       <c r="H21">
-        <v>2.942969890455274</v>
+        <v>3.014988423984846</v>
       </c>
       <c r="I21">
-        <v>0.3770946554257293</v>
+        <v>2.93386991699991</v>
       </c>
       <c r="J21">
-        <v>1.454687879119902</v>
+        <v>0.3770384387775678</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.453964712508423</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.59880859574173</v>
+        <v>4.597786083471703</v>
       </c>
       <c r="C22">
-        <v>2.25185954780784</v>
+        <v>2.24928793953319</v>
       </c>
       <c r="D22">
-        <v>0.7073318052947855</v>
+        <v>0.7072202099520837</v>
       </c>
       <c r="E22">
-        <v>1.132294984538447</v>
+        <v>1.132105225196227</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.896968442482375</v>
+        <v>1.624775485653743</v>
       </c>
       <c r="H22">
-        <v>3.172693346885453</v>
+        <v>3.25913575440083</v>
       </c>
       <c r="I22">
-        <v>0.4128655931922083</v>
+        <v>3.16282509212671</v>
       </c>
       <c r="J22">
-        <v>1.58492219445678</v>
+        <v>0.4127947785548542</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.584086970848546</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.397513664146459</v>
+        <v>4.39661136001655</v>
       </c>
       <c r="C23">
-        <v>2.150364800854675</v>
+        <v>2.147937977641789</v>
       </c>
       <c r="D23">
-        <v>0.6759062528475965</v>
+        <v>0.6758071291047258</v>
       </c>
       <c r="E23">
-        <v>1.080140838533822</v>
+        <v>1.079972640348146</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.696083464347794</v>
+        <v>1.556241318758993</v>
       </c>
       <c r="H23">
-        <v>3.048855462653719</v>
+        <v>3.127550329565452</v>
       </c>
       <c r="I23">
-        <v>0.3935808478095026</v>
+        <v>3.03940142895955</v>
       </c>
       <c r="J23">
-        <v>1.51486671403589</v>
+        <v>0.3935181482719869</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.514092841873733</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664905531467696</v>
+        <v>3.664379886631366</v>
       </c>
       <c r="C24">
-        <v>1.783267753188795</v>
+        <v>1.781337351539833</v>
       </c>
       <c r="D24">
-        <v>0.5623000918381535</v>
+        <v>0.5622391927043111</v>
       </c>
       <c r="E24">
-        <v>0.8925347346136192</v>
+        <v>0.8924320579740765</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.974034275390437</v>
+        <v>1.309672432463657</v>
       </c>
       <c r="H24">
-        <v>2.60448817640318</v>
+        <v>2.654813529878624</v>
       </c>
       <c r="I24">
-        <v>0.3243733270490168</v>
+        <v>2.596521279029119</v>
       </c>
       <c r="J24">
-        <v>1.26042974089269</v>
+        <v>0.3243351891202835</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.259858111709448</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921544781354214</v>
+        <v>2.921308649110188</v>
       </c>
       <c r="C25">
-        <v>1.414439769884325</v>
+        <v>1.412967874646142</v>
       </c>
       <c r="D25">
-        <v>0.4483438429456612</v>
+        <v>0.4483114631166245</v>
       </c>
       <c r="E25">
-        <v>0.7057007832028432</v>
+        <v>0.7056463870815151</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.257443118064103</v>
+        <v>1.064518011559727</v>
       </c>
       <c r="H25">
-        <v>2.164883746632654</v>
+        <v>2.186101916091388</v>
       </c>
       <c r="I25">
-        <v>0.2556866512295173</v>
+        <v>2.158399171494409</v>
       </c>
       <c r="J25">
-        <v>1.003103897190954</v>
+        <v>0.2556665012172559</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.00270572871672</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,40 +409,46 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.40129470636856</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.157384336007112</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3694686791786523</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5770761849600063</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8964405612402402</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.865790018357174</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.859709663064763</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2085227827802782</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8232583555397071</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,40 +456,46 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.06070847202875</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9909938968215499</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3182788254703013</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4938587421411924</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7881607669017825</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.660044198683266</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.668239279078591</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1780558790019526</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7059622615711589</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,40 +503,46 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.856047561325767</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.891400858979523</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2877096213079682</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4442450190307454</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7238740632330547</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.538179286551852</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.55500125658466</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1599070026749807</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6355696434025333</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,40 +550,46 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.773589811869073</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8513597880931911</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.275437304691053</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4243416531591038</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.698153907217673</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.489494061121604</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.509802903943978</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1526291165100844</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.607228340344129</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -573,40 +597,46 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.759949900737439</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.844741069934372</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2734098010058261</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4210541481875723</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6939098686119536</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.481464860873757</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.502351129146902</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1514271480962535</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.602541319656865</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -614,40 +644,46 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.854931909230999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.8908587759858335</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2875434033595496</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4439753931438801</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7235253536761803</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.53751893217914</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.554388035923139</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1598084006888598</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6351861093425484</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -655,40 +691,46 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.282820695342423</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.099413464770748</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3516192834826057</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5480379709514906</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8586014531403947</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.79382867852263</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.792703149735104</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1978876409901567</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7824352264222938</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -696,40 +738,46 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.166635108084677</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.534177778911612</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4857685442426032</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7669191972470344</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.144847270458342</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.339511671193208</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.301672878455108</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2781679979968459</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.087510561280453</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -737,40 +785,46 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.858717580956693</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.878285783848412</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5922599570769762</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9418695732060911</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.374656279337728</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.779292274769034</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.713050994556397</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3425485187370612</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.327252597002158</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -778,40 +832,46 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187196922716169</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.042725955399931</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6432024156399905</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.025983887490341</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.485253486434516</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.991334472465866</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.911699272717783</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3735762752744094</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.441298512830343</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -819,40 +879,46 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.314001063675562</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.106398549432015</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6629334714353661</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.058641115467097</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.528194278498603</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.073721801847455</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.988929179562817</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3856363653610586</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.485368661294046</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -860,40 +926,46 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.286575811107411</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.092618276683424</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6586629822018324</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.051569179969576</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.51889562640585</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.055878499515643</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.972200739744807</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3830240913733789</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.475835043879613</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -901,40 +973,46 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.197577814485669</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.047934498083862</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6448163538289293</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.028653482646945</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.488763782306791</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2.998068226488385</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.918010548382483</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3745618488162634</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.444905406052897</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -942,40 +1020,46 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.143393698097213</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.02075592726186</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6363949177611232</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.014726924026036</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.470451486512275</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2.962942374551773</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.885090392269248</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3694209407588644</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.426080694493649</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -983,40 +1067,46 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.837562015146432</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.867719781485334</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5889875779437546</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9364760372619401</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.36756566820651</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.765705777432373</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.700328897328731</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3405606650052491</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.319913222967486</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1024,40 +1114,46 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.65373456469348</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.776034036837018</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5605973282109744</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8897310108145433</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.306122702882021</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2.648016451865089</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.590160193601406</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3233405728503556</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.256168095360607</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1065,40 +1161,46 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.549254533621138</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.724023977002275</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5444975279656319</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8632598635902724</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.271339052624313</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.581426755598557</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.52785283020782</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3135956012972017</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.219961173119273</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1106,40 +1208,46 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.51408216406935</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.706531572281335</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5390836277104825</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8543643568137753</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.259652359324406</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.55905986127712</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.50692888614023</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3103218981536102</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.207776187818439</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1147,40 +1255,46 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.673170669289334</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.785717336274786</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.563595230214645</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8946631003572065</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.312604542773499</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.66042818504647</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.601775941753985</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3251567710127361</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.262905415810494</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1188,40 +1302,46 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.223649020988773</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.061018733565675</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6488707661841886</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.035361137476642</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.497583762468565</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.014988423984846</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.93386991699991</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3770384387775678</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.453964712508423</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1229,40 +1349,46 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.597786083471703</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.24928793953319</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7072202099520837</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.132105225196227</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.624775485653743</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.25913575440083</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.16282509212671</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4127947785548542</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.584086970848546</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1270,40 +1396,46 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.39661136001655</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.147937977641789</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6758071291047258</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.079972640348146</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.556241318758993</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3.127550329565452</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.03940142895955</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3935181482719869</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.514092841873733</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1311,40 +1443,46 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664379886631366</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.781337351539833</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5622391927043111</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8924320579740765</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.309672432463657</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2.654813529878624</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.596521279029119</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3243351891202835</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.259858111709448</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1352,45 +1490,57 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.921308649110188</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.412967874646142</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4483114631166245</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7056463870815151</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.064518011559727</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2.186101916091388</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.158399171494409</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2556665012172559</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.00270572871672</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.9123420296998574</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.09641149399048743</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2804446772154847</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07060005407009484</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.5072458861343847</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4265651228858331</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4622328645837577</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03156460510426307</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7879629317137642</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2099233156702311</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.217500273222214</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.055467639771445</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.914292416395554</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7962194166053393</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.09197742832947853</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2644561641774743</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06978451625045423</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.50128456714544</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4292884729961202</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.467170765223905</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03174146146075651</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6852800377918555</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1958690891593236</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1928717972749681</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.097200276555784</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.907007789190942</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.7251121625935468</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.08924813987835734</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2549289538565205</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0693524149102025</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.498451380155764</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4314756715914925</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4708541730591911</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03185629969255643</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6222756653526318</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1874244790413755</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1778505504498327</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.123870571954178</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.905357326014268</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6961761110297005</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.08813396842437982</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2511166552678219</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06919321945263057</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.497497511367321</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4324933128619648</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4725146797077073</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03190466473302678</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5966053347369353</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1840277391520004</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1717525773433906</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.13499758136362</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.905372312069915</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6913735450287106</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.08794883501915507</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.250487782488193</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06916779467101364</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.4973510349308725</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4326698318081199</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4727999146467425</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.031912790292004</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5923428838160589</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1834663459342423</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1707413639411328</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.136860707857873</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.905415697951227</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.7247217658215561</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.08923312206517409</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2548772595217486</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06935020003976433</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.4984377128344022</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4314888884047008</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4708759270775822</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03185694561791719</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.621929456490335</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1873784917211907</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1777682192874153</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.124019593178268</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.905354772771375</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.8722582256247051</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.09488386348346012</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2748699903534941</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.07030438142446371</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.5050142706614835</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4273952827052057</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4637975629221387</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03162428622731905</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7525448674497568</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2050378716522943</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2089862108397575</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.069637168500004</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.91118128594043</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.163483510223216</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1059247207201679</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.3165071555843468</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07273783705031889</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.524818921528194</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4236045251206804</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4552909243939816</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03121779150008486</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.009344223698861</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2412276731130731</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2711030257704721</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9715015502039694</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.946048279111011</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.379185755290621</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1140325745789355</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3487753482205704</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07489441771364902</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.5440856933727218</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4236216037144089</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4526148312418385</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03094974654298444</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.198905217279645</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2689070147268637</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3174374002713094</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9048836327059693</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.987486055001824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.477828797157059</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1177252191998974</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3638648439440573</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.07596161393443523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5539929777266934</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4242892579277822</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4522429373620582</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03083452651508889</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.285450535236151</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2817687821834625</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3387028357558961</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8758368281006503</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.010131086443522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.515268677035749</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1191245880646434</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3696418289689802</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.07637864914497783</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5579193584785145</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4246415261202969</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4522298384329666</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03079186899133202</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.318277910075665</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2866809162869117</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3467855280256416</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8650247061686778</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.019283511902529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.507201321227171</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1188231554325512</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3683947891999679</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.07628825030231923</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5570658000387994</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4245611607463928</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4522268769682753</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03080101260104318</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.311205363326906</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.285621101088438</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3450433954649128</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.867344855764224</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.017286177594883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.480907209856525</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1178403226578411</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3643388359024584</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.07599566182048179</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5543124403686193</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4243162192318124</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4522392633182974</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03083099748792506</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.288150113210747</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2821720548381421</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3393671862798584</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8749435173185307</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.010872305704112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.46481284121819</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1172384582761481</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3618627606429072</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.07581814032521095</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5526489987755241</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4241792755148595</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4522636730599423</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03084949117488822</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.274035503189225</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2800649258381043</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3358943329972846</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8796225006001999</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.007019766795935</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.372750590906861</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1137913740863894</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3477978023541368</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.07482645158949097</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.5434620975195656</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4235916324294635</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4526566662849945</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03095741224328297</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.193256376563227</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.268072142010908</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3160516783301617</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9068077607323546</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.98608516509384</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.316414101752628</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1116781000236244</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3392772495085694</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.07424051189105363</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.5381261103400874</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4234032986989007</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4531185676628411</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03102534371099352</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.143787760779702</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2607861220787271</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3039289618606773</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9238116673866914</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.974236273210664</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.28405897757915</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1104629821906684</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.334414848699538</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.07391157145610094</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.5351638942354668</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4233567974986272</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4534634325443534</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03106504759131568</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.115363582092982</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2566206606572479</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2969737758501054</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9337098733894926</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.967776289743369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.273112024090949</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1100516174347135</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3327750030134098</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.073801569599107</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.5341789928533132</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4233515369131027</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4535936173494335</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03107859886942599</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.105744320571773</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2552145638003509</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2946217848892942</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.937081315641727</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.965649122306331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.322406156172548</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1119030192319528</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3401802756329602</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0743020465873343</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.5386829979944423</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.423416916552938</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4530611580253598</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03101804687648535</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.149050725442208</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2615590968532615</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3052176158949607</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9219893140426345</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.975460624910482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.488628002953845</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1181289726032517</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3655284279777078</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.07608124744135836</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.5551163415277216</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4243854280312576</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4522321078205458</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03082216370088542</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.294920439735279</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2831839695267462</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3410335897431409</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8727064711306642</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.012740288273619</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.597770051006137</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1222043009475371</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3824636258772784</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.07731957751357754</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.5668800776539484</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4256003426490338</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4524378939864846</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03069982331838528</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.390577524095988</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2975613318181161</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.364617375951795</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8415920725500414</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.040485339591243</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.539468626894887</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1200284965237373</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3733899115983803</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.07665156732292289</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.5605042975089987</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4248970965044094</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4522575283965651</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03076459593311665</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.33949068716214</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.289864545450996</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3520131417361085</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8580960389735259</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.025357030934117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.319697044948668</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1118013338137871</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3397719051252892</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07427420210846414</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.5384309012113846</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4234105678488191</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4530868663455507</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03102134375388221</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.146671290032884</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2612095623792783</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3046349710066281</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.9228128191141165</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.974906001151794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.084437734395152</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1029401403928816</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.3049633617917351</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07201672685947713</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.518671200395687</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4241545412180443</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4569871023812269</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03132240690452814</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9397537739391169</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2312564148165279</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2541876842692865</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9971094637679565</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.933953299509085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9123420296998574</v>
+        <v>0.6081539144967678</v>
       </c>
       <c r="C2">
-        <v>0.09641149399048743</v>
+        <v>0.1045565753985187</v>
       </c>
       <c r="D2">
-        <v>0.2804446772154847</v>
+        <v>0.5294204535027092</v>
       </c>
       <c r="E2">
-        <v>0.07060005407009484</v>
+        <v>0.1801250403278836</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5072458861343847</v>
+        <v>1.087609707097542</v>
       </c>
       <c r="H2">
-        <v>0.4265651228858331</v>
+        <v>1.102327234187705</v>
       </c>
       <c r="I2">
-        <v>0.4622328645837577</v>
+        <v>1.131493868627032</v>
       </c>
       <c r="J2">
-        <v>0.03156460510426307</v>
+        <v>0.07600438919598407</v>
       </c>
       <c r="K2">
-        <v>0.7879629317137642</v>
+        <v>0.3336100091540004</v>
       </c>
       <c r="L2">
-        <v>0.2099233156702311</v>
+        <v>0.3916150724135861</v>
       </c>
       <c r="M2">
-        <v>0.217500273222214</v>
+        <v>0.2296777719266174</v>
       </c>
       <c r="N2">
-        <v>1.055467639771445</v>
+        <v>2.2448386025138</v>
       </c>
       <c r="O2">
-        <v>1.914292416395554</v>
+        <v>4.448205639909489</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7962194166053393</v>
+        <v>0.5764339406146348</v>
       </c>
       <c r="C3">
-        <v>0.09197742832947853</v>
+        <v>0.103004563157036</v>
       </c>
       <c r="D3">
-        <v>0.2644561641774743</v>
+        <v>0.5279971603881819</v>
       </c>
       <c r="E3">
-        <v>0.06978451625045423</v>
+        <v>0.1807275003245277</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.50128456714544</v>
+        <v>1.092934721604763</v>
       </c>
       <c r="H3">
-        <v>0.4292884729961202</v>
+        <v>1.108455703844122</v>
       </c>
       <c r="I3">
-        <v>0.467170765223905</v>
+        <v>1.138974559865968</v>
       </c>
       <c r="J3">
-        <v>0.03174146146075651</v>
+        <v>0.07612160996019401</v>
       </c>
       <c r="K3">
-        <v>0.6852800377918555</v>
+        <v>0.3036020053045263</v>
       </c>
       <c r="L3">
-        <v>0.1958690891593236</v>
+        <v>0.3897552854578095</v>
       </c>
       <c r="M3">
-        <v>0.1928717972749681</v>
+        <v>0.2237277813395657</v>
       </c>
       <c r="N3">
-        <v>1.097200276555784</v>
+        <v>2.263540651233306</v>
       </c>
       <c r="O3">
-        <v>1.907007789190942</v>
+        <v>4.472067664219637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7251121625935468</v>
+        <v>0.5571423412148988</v>
       </c>
       <c r="C4">
-        <v>0.08924813987835734</v>
+        <v>0.1020411674826533</v>
       </c>
       <c r="D4">
-        <v>0.2549289538565205</v>
+        <v>0.5273296838462613</v>
       </c>
       <c r="E4">
-        <v>0.0693524149102025</v>
+        <v>0.1811498937645286</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.498451380155764</v>
+        <v>1.096689536102964</v>
       </c>
       <c r="H4">
-        <v>0.4314756715914925</v>
+        <v>1.112569202136591</v>
       </c>
       <c r="I4">
-        <v>0.4708541730591911</v>
+        <v>1.143979352180182</v>
       </c>
       <c r="J4">
-        <v>0.03185629969255643</v>
+        <v>0.07619821387307901</v>
       </c>
       <c r="K4">
-        <v>0.6222756653526318</v>
+        <v>0.2852256649247238</v>
       </c>
       <c r="L4">
-        <v>0.1874244790413755</v>
+        <v>0.3887533192403723</v>
       </c>
       <c r="M4">
-        <v>0.1778505504498327</v>
+        <v>0.220157916008155</v>
       </c>
       <c r="N4">
-        <v>1.123870571954178</v>
+        <v>2.275613003826459</v>
       </c>
       <c r="O4">
-        <v>1.905357326014268</v>
+        <v>4.488472539281815</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6961761110297005</v>
+        <v>0.5493279693172042</v>
       </c>
       <c r="C5">
-        <v>0.08813396842437982</v>
+        <v>0.1016459650299311</v>
       </c>
       <c r="D5">
-        <v>0.2511166552678219</v>
+        <v>0.5271097459496161</v>
       </c>
       <c r="E5">
-        <v>0.06919321945263057</v>
+        <v>0.181335251734092</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.497497511367321</v>
+        <v>1.098341790203349</v>
       </c>
       <c r="H5">
-        <v>0.4324933128619648</v>
+        <v>1.114333783749672</v>
       </c>
       <c r="I5">
-        <v>0.4725146797077073</v>
+        <v>1.146122470187269</v>
       </c>
       <c r="J5">
-        <v>0.03190466473302678</v>
+        <v>0.07623059807111687</v>
       </c>
       <c r="K5">
-        <v>0.5966053347369353</v>
+        <v>0.2777499419001401</v>
       </c>
       <c r="L5">
-        <v>0.1840277391520004</v>
+        <v>0.3883803297328328</v>
       </c>
       <c r="M5">
-        <v>0.1717525773433906</v>
+        <v>0.2187243133829782</v>
       </c>
       <c r="N5">
-        <v>1.13499758136362</v>
+        <v>2.280680842623745</v>
       </c>
       <c r="O5">
-        <v>1.905372312069915</v>
+        <v>4.495599128509909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6913735450287106</v>
+        <v>0.5480332646498596</v>
       </c>
       <c r="C6">
-        <v>0.08794883501915507</v>
+        <v>0.1015801847969087</v>
       </c>
       <c r="D6">
-        <v>0.250487782488193</v>
+        <v>0.527076374546084</v>
       </c>
       <c r="E6">
-        <v>0.06916779467101364</v>
+        <v>0.1813668302527507</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4973510349308725</v>
+        <v>1.098623526044179</v>
       </c>
       <c r="H6">
-        <v>0.4326698318081199</v>
+        <v>1.114632128209685</v>
       </c>
       <c r="I6">
-        <v>0.4727999146467425</v>
+        <v>1.146484595493117</v>
       </c>
       <c r="J6">
-        <v>0.031912790292004</v>
+        <v>0.07623604605143841</v>
       </c>
       <c r="K6">
-        <v>0.5923428838160589</v>
+        <v>0.2765093918467585</v>
       </c>
       <c r="L6">
-        <v>0.1834663459342423</v>
+        <v>0.3883205321099439</v>
       </c>
       <c r="M6">
-        <v>0.1707413639411328</v>
+        <v>0.2184875467053971</v>
       </c>
       <c r="N6">
-        <v>1.136860707857873</v>
+        <v>2.281531310530494</v>
       </c>
       <c r="O6">
-        <v>1.905415697951227</v>
+        <v>4.496809172741379</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7247217658215561</v>
+        <v>0.5570367621897105</v>
       </c>
       <c r="C7">
-        <v>0.08923312206517409</v>
+        <v>0.1020358481912425</v>
       </c>
       <c r="D7">
-        <v>0.2548772595217486</v>
+        <v>0.5273265066729067</v>
       </c>
       <c r="E7">
-        <v>0.06935020003976433</v>
+        <v>0.1811523399589579</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4984377128344022</v>
+        <v>1.096711324292286</v>
       </c>
       <c r="H7">
-        <v>0.4314888884047008</v>
+        <v>1.112592642204049</v>
       </c>
       <c r="I7">
-        <v>0.4708759270775822</v>
+        <v>1.144007835287944</v>
       </c>
       <c r="J7">
-        <v>0.03185694561791719</v>
+        <v>0.07619864588629977</v>
       </c>
       <c r="K7">
-        <v>0.621929456490335</v>
+        <v>0.2851247922287001</v>
       </c>
       <c r="L7">
-        <v>0.1873784917211907</v>
+        <v>0.3887481457940396</v>
       </c>
       <c r="M7">
-        <v>0.1777682192874153</v>
+        <v>0.2201384961061095</v>
       </c>
       <c r="N7">
-        <v>1.124019593178268</v>
+        <v>2.275680750060691</v>
       </c>
       <c r="O7">
-        <v>1.905354772771375</v>
+        <v>4.48856686274776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8722582256247051</v>
+        <v>0.5971789610449321</v>
       </c>
       <c r="C8">
-        <v>0.09488386348346012</v>
+        <v>0.1040236215549442</v>
       </c>
       <c r="D8">
-        <v>0.2748699903534941</v>
+        <v>0.5288869489732235</v>
       </c>
       <c r="E8">
-        <v>0.07030438142446371</v>
+        <v>0.1803218956010078</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5050142706614835</v>
+        <v>1.089345133195707</v>
       </c>
       <c r="H8">
-        <v>0.4273952827052057</v>
+        <v>1.104367647627875</v>
       </c>
       <c r="I8">
-        <v>0.4637975629221387</v>
+        <v>1.133987851608683</v>
       </c>
       <c r="J8">
-        <v>0.03162428622731905</v>
+        <v>0.07604384794038133</v>
       </c>
       <c r="K8">
-        <v>0.7525448674497568</v>
+        <v>0.3232534573680823</v>
       </c>
       <c r="L8">
-        <v>0.2050378716522943</v>
+        <v>0.3909448467164154</v>
       </c>
       <c r="M8">
-        <v>0.2089862108397575</v>
+        <v>0.2276089891866135</v>
       </c>
       <c r="N8">
-        <v>1.069637168500004</v>
+        <v>2.251164834178141</v>
       </c>
       <c r="O8">
-        <v>1.91118128594043</v>
+        <v>4.456069648629068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.163483510223216</v>
+        <v>0.6773360467401517</v>
       </c>
       <c r="C9">
-        <v>0.1059247207201679</v>
+        <v>0.107838071736019</v>
       </c>
       <c r="D9">
-        <v>0.3165071555843468</v>
+        <v>0.5335787150024629</v>
       </c>
       <c r="E9">
-        <v>0.07273783705031889</v>
+        <v>0.1791084238577341</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.524818921528194</v>
+        <v>1.078745365068599</v>
       </c>
       <c r="H9">
-        <v>0.4236045251206804</v>
+        <v>1.091014272861472</v>
       </c>
       <c r="I9">
-        <v>0.4552909243939816</v>
+        <v>1.117599494077826</v>
       </c>
       <c r="J9">
-        <v>0.03121779150008486</v>
+        <v>0.07577687945645639</v>
       </c>
       <c r="K9">
-        <v>1.009344223698861</v>
+        <v>0.3983899846186603</v>
       </c>
       <c r="L9">
-        <v>0.2412276731130731</v>
+        <v>0.3963579218464162</v>
       </c>
       <c r="M9">
-        <v>0.2711030257704721</v>
+        <v>0.2429145625059128</v>
       </c>
       <c r="N9">
-        <v>0.9715015502039694</v>
+        <v>2.207759514161358</v>
       </c>
       <c r="O9">
-        <v>1.946048279111011</v>
+        <v>4.406233485156577</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.379185755290621</v>
+        <v>0.7370751322752369</v>
       </c>
       <c r="C10">
-        <v>0.1140325745789355</v>
+        <v>0.1105890089509103</v>
       </c>
       <c r="D10">
-        <v>0.3487753482205704</v>
+        <v>0.5380131137946478</v>
       </c>
       <c r="E10">
-        <v>0.07489441771364902</v>
+        <v>0.1784681085660544</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5440856933727218</v>
+        <v>1.073296195144536</v>
       </c>
       <c r="H10">
-        <v>0.4236216037144089</v>
+        <v>1.082887838683391</v>
       </c>
       <c r="I10">
-        <v>0.4526148312418385</v>
+        <v>1.10753994389205</v>
       </c>
       <c r="J10">
-        <v>0.03094974654298444</v>
+        <v>0.07560284245846027</v>
       </c>
       <c r="K10">
-        <v>1.198905217279645</v>
+        <v>0.4537945989884804</v>
       </c>
       <c r="L10">
-        <v>0.2689070147268637</v>
+        <v>0.4010027062249293</v>
       </c>
       <c r="M10">
-        <v>0.3174374002713094</v>
+        <v>0.2545524391944056</v>
       </c>
       <c r="N10">
-        <v>0.9048836327059693</v>
+        <v>2.178709072870237</v>
       </c>
       <c r="O10">
-        <v>1.987486055001824</v>
+        <v>4.37805872699596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.477828797157059</v>
+        <v>0.7644302222467161</v>
       </c>
       <c r="C11">
-        <v>0.1177252191998974</v>
+        <v>0.1118291778907263</v>
       </c>
       <c r="D11">
-        <v>0.3638648439440573</v>
+        <v>0.5402433206924115</v>
       </c>
       <c r="E11">
-        <v>0.07596161393443523</v>
+        <v>0.1782309897829535</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5539929777266934</v>
+        <v>1.071323849315277</v>
       </c>
       <c r="H11">
-        <v>0.4242892579277822</v>
+        <v>1.079554986077412</v>
       </c>
       <c r="I11">
-        <v>0.4522429373620582</v>
+        <v>1.103392305497302</v>
       </c>
       <c r="J11">
-        <v>0.03083452651508889</v>
+        <v>0.07552842577737895</v>
       </c>
       <c r="K11">
-        <v>1.285450535236151</v>
+        <v>0.4790391602040813</v>
       </c>
       <c r="L11">
-        <v>0.2817687821834625</v>
+        <v>0.403259510485114</v>
       </c>
       <c r="M11">
-        <v>0.3387028357558961</v>
+        <v>0.2599307079773396</v>
       </c>
       <c r="N11">
-        <v>0.8758368281006503</v>
+        <v>2.16610818986479</v>
       </c>
       <c r="O11">
-        <v>2.010131086443522</v>
+        <v>4.36706810752915</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.515268677035749</v>
+        <v>0.7748140626802922</v>
       </c>
       <c r="C12">
-        <v>0.1191245880646434</v>
+        <v>0.112297165186412</v>
       </c>
       <c r="D12">
-        <v>0.3696418289689802</v>
+        <v>0.5411183230908563</v>
       </c>
       <c r="E12">
-        <v>0.07637864914497783</v>
+        <v>0.1781489561615679</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5579193584785145</v>
+        <v>1.070649703512018</v>
       </c>
       <c r="H12">
-        <v>0.4246415261202969</v>
+        <v>1.078345117510935</v>
       </c>
       <c r="I12">
-        <v>0.4522298384329666</v>
+        <v>1.101883207207678</v>
       </c>
       <c r="J12">
-        <v>0.03079186899133202</v>
+        <v>0.07550092639795025</v>
       </c>
       <c r="K12">
-        <v>1.318277910075665</v>
+        <v>0.4886039916586071</v>
       </c>
       <c r="L12">
-        <v>0.2866809162869117</v>
+        <v>0.4041346725655472</v>
       </c>
       <c r="M12">
-        <v>0.3467855280256416</v>
+        <v>0.2619792701753667</v>
       </c>
       <c r="N12">
-        <v>0.8650247061686778</v>
+        <v>2.161424808868465</v>
       </c>
       <c r="O12">
-        <v>2.019283511902529</v>
+        <v>4.363168359559921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.507201321227171</v>
+        <v>0.7725766141394104</v>
       </c>
       <c r="C13">
-        <v>0.1188231554325512</v>
+        <v>0.1121964489174871</v>
       </c>
       <c r="D13">
-        <v>0.3683947891999679</v>
+        <v>0.5409285229024903</v>
       </c>
       <c r="E13">
-        <v>0.07628825030231923</v>
+        <v>0.1781662790116449</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5570658000387994</v>
+        <v>1.070791659337303</v>
       </c>
       <c r="H13">
-        <v>0.4245611607463928</v>
+        <v>1.078603364163158</v>
       </c>
       <c r="I13">
-        <v>0.4522268769682753</v>
+        <v>1.102205483821201</v>
       </c>
       <c r="J13">
-        <v>0.03080101260104318</v>
+        <v>0.07550681865853193</v>
       </c>
       <c r="K13">
-        <v>1.311205363326906</v>
+        <v>0.4865438093829084</v>
       </c>
       <c r="L13">
-        <v>0.285621101088438</v>
+        <v>0.4039452784244872</v>
       </c>
       <c r="M13">
-        <v>0.3450433954649128</v>
+        <v>0.261537547847503</v>
       </c>
       <c r="N13">
-        <v>0.867344855764224</v>
+        <v>2.162429532160423</v>
       </c>
       <c r="O13">
-        <v>2.017286177594883</v>
+        <v>4.363996587485786</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.480907209856525</v>
+        <v>0.7652840090608493</v>
       </c>
       <c r="C14">
-        <v>0.1178403226578411</v>
+        <v>0.1118677124292518</v>
       </c>
       <c r="D14">
-        <v>0.3643388359024584</v>
+        <v>0.5403146978574398</v>
       </c>
       <c r="E14">
-        <v>0.07599566182048179</v>
+        <v>0.1782240855182771</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5543124403686193</v>
+        <v>1.07126692969517</v>
       </c>
       <c r="H14">
-        <v>0.4243162192318124</v>
+        <v>1.079454403765084</v>
       </c>
       <c r="I14">
-        <v>0.4522392633182974</v>
+        <v>1.103266918619497</v>
       </c>
       <c r="J14">
-        <v>0.03083099748792506</v>
+        <v>0.07552614976345318</v>
       </c>
       <c r="K14">
-        <v>1.288150113210747</v>
+        <v>0.4798259625393655</v>
       </c>
       <c r="L14">
-        <v>0.2821720548381421</v>
+        <v>0.4033310992952579</v>
       </c>
       <c r="M14">
-        <v>0.3393671862798584</v>
+        <v>0.2600990063349826</v>
       </c>
       <c r="N14">
-        <v>0.8749435173185307</v>
+        <v>2.165721115831863</v>
       </c>
       <c r="O14">
-        <v>2.010872305704112</v>
+        <v>4.366742021375501</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.46481284121819</v>
+        <v>0.7608203194424448</v>
       </c>
       <c r="C15">
-        <v>0.1172384582761481</v>
+        <v>0.1116661379408086</v>
       </c>
       <c r="D15">
-        <v>0.3618627606429072</v>
+        <v>0.5399426759923074</v>
       </c>
       <c r="E15">
-        <v>0.07581814032521095</v>
+        <v>0.178260503102031</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5526489987755241</v>
+        <v>1.071567516375993</v>
       </c>
       <c r="H15">
-        <v>0.4241792755148595</v>
+        <v>1.079982485922159</v>
       </c>
       <c r="I15">
-        <v>0.4522636730599423</v>
+        <v>1.103925087276771</v>
       </c>
       <c r="J15">
-        <v>0.03084949117488822</v>
+        <v>0.07553807917068234</v>
       </c>
       <c r="K15">
-        <v>1.274035503189225</v>
+        <v>0.475711755320134</v>
       </c>
       <c r="L15">
-        <v>0.2800649258381043</v>
+        <v>0.4029575704467163</v>
       </c>
       <c r="M15">
-        <v>0.3358943329972846</v>
+        <v>0.259219406499831</v>
       </c>
       <c r="N15">
-        <v>0.8796225006001999</v>
+        <v>2.167748804078425</v>
       </c>
       <c r="O15">
-        <v>2.007019766795935</v>
+        <v>4.368457806765548</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372750590906861</v>
+        <v>0.7352909605246509</v>
       </c>
       <c r="C16">
-        <v>0.1137913740863894</v>
+        <v>0.1105077329332431</v>
       </c>
       <c r="D16">
-        <v>0.3477978023541368</v>
+        <v>0.5378716369745149</v>
       </c>
       <c r="E16">
-        <v>0.07482645158949097</v>
+        <v>0.1784846921356422</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5434620975195656</v>
+        <v>1.073435276582529</v>
       </c>
       <c r="H16">
-        <v>0.4235916324294635</v>
+        <v>1.083112960961984</v>
       </c>
       <c r="I16">
-        <v>0.4526566662849945</v>
+        <v>1.107819616176418</v>
       </c>
       <c r="J16">
-        <v>0.03095741224328297</v>
+        <v>0.07560780116446342</v>
       </c>
       <c r="K16">
-        <v>1.193256376563227</v>
+        <v>0.4521455764163704</v>
       </c>
       <c r="L16">
-        <v>0.268072142010908</v>
+        <v>0.400858102748856</v>
       </c>
       <c r="M16">
-        <v>0.3160516783301617</v>
+        <v>0.2542026352056936</v>
       </c>
       <c r="N16">
-        <v>0.9068077607323546</v>
+        <v>2.17954492845456</v>
       </c>
       <c r="O16">
-        <v>1.98608516509384</v>
+        <v>4.378813699796012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.316414101752628</v>
+        <v>0.719674963178619</v>
       </c>
       <c r="C17">
-        <v>0.1116781000236244</v>
+        <v>0.1097941939234559</v>
       </c>
       <c r="D17">
-        <v>0.3392772495085694</v>
+        <v>0.5366555602802663</v>
       </c>
       <c r="E17">
-        <v>0.07424051189105363</v>
+        <v>0.1786360757258123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5381261103400874</v>
+        <v>1.074710747364492</v>
       </c>
       <c r="H17">
-        <v>0.4234032986989007</v>
+        <v>1.085126525855102</v>
       </c>
       <c r="I17">
-        <v>0.4531185676628411</v>
+        <v>1.110318464844369</v>
       </c>
       <c r="J17">
-        <v>0.03102534371099352</v>
+        <v>0.07565178875010492</v>
       </c>
       <c r="K17">
-        <v>1.143787760779702</v>
+        <v>0.4376984982934857</v>
       </c>
       <c r="L17">
-        <v>0.2607861220787271</v>
+        <v>0.3996069038345951</v>
       </c>
       <c r="M17">
-        <v>0.3039289618606773</v>
+        <v>0.2511464374037473</v>
       </c>
       <c r="N17">
-        <v>0.9238116673866914</v>
+        <v>2.186938780759731</v>
       </c>
       <c r="O17">
-        <v>1.974236273210664</v>
+        <v>4.385634124994681</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.28405897757915</v>
+        <v>0.7107099927743832</v>
       </c>
       <c r="C18">
-        <v>0.1104629821906684</v>
+        <v>0.1093827278427284</v>
       </c>
       <c r="D18">
-        <v>0.334414848699538</v>
+        <v>0.5359761607379454</v>
       </c>
       <c r="E18">
-        <v>0.07391157145610094</v>
+        <v>0.1787282475454344</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5351638942354668</v>
+        <v>1.075492045222447</v>
       </c>
       <c r="H18">
-        <v>0.4233567974986272</v>
+        <v>1.086318934445856</v>
       </c>
       <c r="I18">
-        <v>0.4534634325443534</v>
+        <v>1.11179607478152</v>
       </c>
       <c r="J18">
-        <v>0.03106504759131568</v>
+        <v>0.0756775368550171</v>
       </c>
       <c r="K18">
-        <v>1.115363582092982</v>
+        <v>0.4293927896506204</v>
       </c>
       <c r="L18">
-        <v>0.2566206606572479</v>
+        <v>0.3989007966039679</v>
       </c>
       <c r="M18">
-        <v>0.2969737758501054</v>
+        <v>0.2493965231576851</v>
       </c>
       <c r="N18">
-        <v>0.9337098733894926</v>
+        <v>2.191249352704051</v>
       </c>
       <c r="O18">
-        <v>1.967776289743369</v>
+        <v>4.389728972249145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.273112024090949</v>
+        <v>0.707677539766479</v>
       </c>
       <c r="C19">
-        <v>0.1100516174347135</v>
+        <v>0.1092432315289997</v>
       </c>
       <c r="D19">
-        <v>0.3327750030134098</v>
+        <v>0.5357495769956273</v>
       </c>
       <c r="E19">
-        <v>0.073801569599107</v>
+        <v>0.1787603321995572</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5341789928533132</v>
+        <v>1.075764771417283</v>
       </c>
       <c r="H19">
-        <v>0.4233515369131027</v>
+        <v>1.086728551196927</v>
       </c>
       <c r="I19">
-        <v>0.4535936173494335</v>
+        <v>1.112303299175988</v>
       </c>
       <c r="J19">
-        <v>0.03107859886942599</v>
+        <v>0.07568633168870775</v>
       </c>
       <c r="K19">
-        <v>1.105744320571773</v>
+        <v>0.4265813018823792</v>
       </c>
       <c r="L19">
-        <v>0.2552145638003509</v>
+        <v>0.3986640518575655</v>
       </c>
       <c r="M19">
-        <v>0.2946217848892942</v>
+        <v>0.2488053994300188</v>
       </c>
       <c r="N19">
-        <v>0.937081315641727</v>
+        <v>2.192718770734854</v>
       </c>
       <c r="O19">
-        <v>1.965649122306331</v>
+        <v>4.391144958074932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.322406156172548</v>
+        <v>0.7213355651235247</v>
       </c>
       <c r="C20">
-        <v>0.1119030192319528</v>
+        <v>0.109870260946785</v>
       </c>
       <c r="D20">
-        <v>0.3401802756329602</v>
+        <v>0.5367829391585701</v>
       </c>
       <c r="E20">
-        <v>0.0743020465873343</v>
+        <v>0.1786194330771647</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5386829979944423</v>
+        <v>1.07457003723772</v>
       </c>
       <c r="H20">
-        <v>0.423416916552938</v>
+        <v>1.084908633583268</v>
       </c>
       <c r="I20">
-        <v>0.4530611580253598</v>
+        <v>1.110048283971413</v>
       </c>
       <c r="J20">
-        <v>0.03101804687648535</v>
+        <v>0.07564705989223608</v>
       </c>
       <c r="K20">
-        <v>1.149050725442208</v>
+        <v>0.4392360183262554</v>
       </c>
       <c r="L20">
-        <v>0.2615590968532615</v>
+        <v>0.3997386947276595</v>
       </c>
       <c r="M20">
-        <v>0.3052176158949607</v>
+        <v>0.2514709553992631</v>
       </c>
       <c r="N20">
-        <v>0.9219893140426345</v>
+        <v>2.186145708302253</v>
       </c>
       <c r="O20">
-        <v>1.975460624910482</v>
+        <v>4.384890289349727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.488628002953845</v>
+        <v>0.7674253497436041</v>
       </c>
       <c r="C21">
-        <v>0.1181289726032517</v>
+        <v>0.1119643149163849</v>
       </c>
       <c r="D21">
-        <v>0.3655284279777078</v>
+        <v>0.5404941673963464</v>
       </c>
       <c r="E21">
-        <v>0.07608124744135836</v>
+        <v>0.1782068960363894</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5551163415277216</v>
+        <v>1.071125357932218</v>
       </c>
       <c r="H21">
-        <v>0.4243854280312576</v>
+        <v>1.079203016770578</v>
       </c>
       <c r="I21">
-        <v>0.4522321078205458</v>
+        <v>1.102953480550937</v>
       </c>
       <c r="J21">
-        <v>0.03082216370088542</v>
+        <v>0.07552045330167179</v>
       </c>
       <c r="K21">
-        <v>1.294920439735279</v>
+        <v>0.4817990188581973</v>
       </c>
       <c r="L21">
-        <v>0.2831839695267462</v>
+        <v>0.403510941647383</v>
       </c>
       <c r="M21">
-        <v>0.3410335897431409</v>
+        <v>0.2605212184721992</v>
       </c>
       <c r="N21">
-        <v>0.8727064711306642</v>
+        <v>2.164751901765182</v>
       </c>
       <c r="O21">
-        <v>2.012740288273619</v>
+        <v>4.36592850947369</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.597770051006137</v>
+        <v>0.7976934190824352</v>
       </c>
       <c r="C22">
-        <v>0.1222043009475371</v>
+        <v>0.1133233445289221</v>
       </c>
       <c r="D22">
-        <v>0.3824636258772784</v>
+        <v>0.5430972087858805</v>
       </c>
       <c r="E22">
-        <v>0.07731957751357754</v>
+        <v>0.1779824853277994</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5668800776539484</v>
+        <v>1.069297993068645</v>
       </c>
       <c r="H22">
-        <v>0.4256003426490338</v>
+        <v>1.075778333868016</v>
       </c>
       <c r="I22">
-        <v>0.4524378939864846</v>
+        <v>1.098675171637538</v>
       </c>
       <c r="J22">
-        <v>0.03069982331838528</v>
+        <v>0.07544167428985649</v>
       </c>
       <c r="K22">
-        <v>1.390577524095988</v>
+        <v>0.5096468076805252</v>
       </c>
       <c r="L22">
-        <v>0.2975613318181161</v>
+        <v>0.4060960985372901</v>
       </c>
       <c r="M22">
-        <v>0.364617375951795</v>
+        <v>0.2665055378910068</v>
       </c>
       <c r="N22">
-        <v>0.8415920725500414</v>
+        <v>2.151284476661425</v>
       </c>
       <c r="O22">
-        <v>2.040485339591243</v>
+        <v>4.355063758792994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.539468626894887</v>
+        <v>0.7815256935313641</v>
       </c>
       <c r="C23">
-        <v>0.1200284965237373</v>
+        <v>0.1125988859959648</v>
       </c>
       <c r="D23">
-        <v>0.3733899115983803</v>
+        <v>0.5416917227899773</v>
       </c>
       <c r="E23">
-        <v>0.07665156732292289</v>
+        <v>0.178098131270211</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5605042975089987</v>
+        <v>1.07023453422498</v>
       </c>
       <c r="H23">
-        <v>0.4248970965044094</v>
+        <v>1.077578350070524</v>
       </c>
       <c r="I23">
-        <v>0.4522575283965651</v>
+        <v>1.100925809290096</v>
       </c>
       <c r="J23">
-        <v>0.03076459593311665</v>
+        <v>0.07548335824042418</v>
       </c>
       <c r="K23">
-        <v>1.33949068716214</v>
+        <v>0.4947813321698504</v>
       </c>
       <c r="L23">
-        <v>0.289864545450996</v>
+        <v>0.4047054347583128</v>
       </c>
       <c r="M23">
-        <v>0.3520131417361085</v>
+        <v>0.2633052958123301</v>
       </c>
       <c r="N23">
-        <v>0.8580960389735259</v>
+        <v>2.158425214617883</v>
       </c>
       <c r="O23">
-        <v>2.025357030934117</v>
+        <v>4.360722828116906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.319697044948668</v>
+        <v>0.7205847668246577</v>
       </c>
       <c r="C24">
-        <v>0.1118013338137871</v>
+        <v>0.1098358749153832</v>
       </c>
       <c r="D24">
-        <v>0.3397719051252892</v>
+        <v>0.5367252896715229</v>
       </c>
       <c r="E24">
-        <v>0.07427420210846414</v>
+        <v>0.1786269412079999</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5384309012113846</v>
+        <v>1.074633502722904</v>
       </c>
       <c r="H24">
-        <v>0.4234105678488191</v>
+        <v>1.085007034322757</v>
       </c>
       <c r="I24">
-        <v>0.4530868663455507</v>
+        <v>1.110170305060837</v>
       </c>
       <c r="J24">
-        <v>0.03102134375388221</v>
+        <v>0.07564919637930068</v>
       </c>
       <c r="K24">
-        <v>1.146671290032884</v>
+        <v>0.4385409051351132</v>
       </c>
       <c r="L24">
-        <v>0.2612095623792783</v>
+        <v>0.3996790708652753</v>
       </c>
       <c r="M24">
-        <v>0.3046349710066281</v>
+        <v>0.251324218577345</v>
       </c>
       <c r="N24">
-        <v>0.9228128191141165</v>
+        <v>2.186504070246562</v>
       </c>
       <c r="O24">
-        <v>1.974906001151794</v>
+        <v>4.385226036367925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.084437734395152</v>
+        <v>0.6555004616817257</v>
       </c>
       <c r="C25">
-        <v>0.1029401403928816</v>
+        <v>0.1068151697837436</v>
       </c>
       <c r="D25">
-        <v>0.3049633617917351</v>
+        <v>0.5321355428517194</v>
       </c>
       <c r="E25">
-        <v>0.07201672685947713</v>
+        <v>0.1793924538779237</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.518671200395687</v>
+        <v>1.081201808120966</v>
       </c>
       <c r="H25">
-        <v>0.4241545412180443</v>
+        <v>1.094330365726435</v>
       </c>
       <c r="I25">
-        <v>0.4569871023812269</v>
+        <v>1.121684602561594</v>
       </c>
       <c r="J25">
-        <v>0.03132240690452814</v>
+        <v>0.07584520522274385</v>
       </c>
       <c r="K25">
-        <v>0.9397537739391169</v>
+        <v>0.3780265678463763</v>
       </c>
       <c r="L25">
-        <v>0.2312564148165279</v>
+        <v>0.3947758320678219</v>
       </c>
       <c r="M25">
-        <v>0.2541876842692865</v>
+        <v>0.2387044997657135</v>
       </c>
       <c r="N25">
-        <v>0.9971094637679565</v>
+        <v>2.219002620271689</v>
       </c>
       <c r="O25">
-        <v>1.933953299509085</v>
+        <v>4.418231317202867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6081539144967678</v>
+        <v>0.9123420296999427</v>
       </c>
       <c r="C2">
-        <v>0.1045565753985187</v>
+        <v>0.09641149399065085</v>
       </c>
       <c r="D2">
-        <v>0.5294204535027092</v>
+        <v>0.2804446772155416</v>
       </c>
       <c r="E2">
-        <v>0.1801250403278836</v>
+        <v>0.07060005407010017</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.087609707097542</v>
+        <v>0.5072458861344202</v>
       </c>
       <c r="H2">
-        <v>1.102327234187705</v>
+        <v>0.4265651228859468</v>
       </c>
       <c r="I2">
-        <v>1.131493868627032</v>
+        <v>0.4622328645837364</v>
       </c>
       <c r="J2">
-        <v>0.07600438919598407</v>
+        <v>0.03156460510417514</v>
       </c>
       <c r="K2">
-        <v>0.3336100091540004</v>
+        <v>0.7879629317137926</v>
       </c>
       <c r="L2">
-        <v>0.3916150724135861</v>
+        <v>0.209923315670288</v>
       </c>
       <c r="M2">
-        <v>0.2296777719266174</v>
+        <v>0.2175002732221962</v>
       </c>
       <c r="N2">
-        <v>2.2448386025138</v>
+        <v>1.055467639771375</v>
       </c>
       <c r="O2">
-        <v>4.448205639909489</v>
+        <v>1.914292416395512</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5764339406146348</v>
+        <v>0.7962194166052541</v>
       </c>
       <c r="C3">
-        <v>0.103004563157036</v>
+        <v>0.09197742832908062</v>
       </c>
       <c r="D3">
-        <v>0.5279971603881819</v>
+        <v>0.2644561641774743</v>
       </c>
       <c r="E3">
-        <v>0.1807275003245277</v>
+        <v>0.06978451625046134</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.092934721604763</v>
+        <v>0.5012845671454613</v>
       </c>
       <c r="H3">
-        <v>1.108455703844122</v>
+        <v>0.4292884729961202</v>
       </c>
       <c r="I3">
-        <v>1.138974559865968</v>
+        <v>0.4671707652239121</v>
       </c>
       <c r="J3">
-        <v>0.07612160996019401</v>
+        <v>0.03174146146074097</v>
       </c>
       <c r="K3">
-        <v>0.3036020053045263</v>
+        <v>0.6852800377919408</v>
       </c>
       <c r="L3">
-        <v>0.3897552854578095</v>
+        <v>0.195869089159558</v>
       </c>
       <c r="M3">
-        <v>0.2237277813395657</v>
+        <v>0.1928717972749645</v>
       </c>
       <c r="N3">
-        <v>2.263540651233306</v>
+        <v>1.097200276555846</v>
       </c>
       <c r="O3">
-        <v>4.472067664219637</v>
+        <v>1.90700778919097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5571423412148988</v>
+        <v>0.7251121625936889</v>
       </c>
       <c r="C4">
-        <v>0.1020411674826533</v>
+        <v>0.08924813987809443</v>
       </c>
       <c r="D4">
-        <v>0.5273296838462613</v>
+        <v>0.2549289538565205</v>
       </c>
       <c r="E4">
-        <v>0.1811498937645286</v>
+        <v>0.06935241491022381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.096689536102964</v>
+        <v>0.4984513801557853</v>
       </c>
       <c r="H4">
-        <v>1.112569202136591</v>
+        <v>0.4314756715915138</v>
       </c>
       <c r="I4">
-        <v>1.143979352180182</v>
+        <v>0.4708541730592017</v>
       </c>
       <c r="J4">
-        <v>0.07619821387307901</v>
+        <v>0.03185629969260972</v>
       </c>
       <c r="K4">
-        <v>0.2852256649247238</v>
+        <v>0.6222756653527597</v>
       </c>
       <c r="L4">
-        <v>0.3887533192403723</v>
+        <v>0.1874244790413186</v>
       </c>
       <c r="M4">
-        <v>0.220157916008155</v>
+        <v>0.1778505504498291</v>
       </c>
       <c r="N4">
-        <v>2.275613003826459</v>
+        <v>1.1238705719542</v>
       </c>
       <c r="O4">
-        <v>4.488472539281815</v>
+        <v>1.905357326014339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5493279693172042</v>
+        <v>0.6961761110295299</v>
       </c>
       <c r="C5">
-        <v>0.1016459650299311</v>
+        <v>0.08813396842437982</v>
       </c>
       <c r="D5">
-        <v>0.5271097459496161</v>
+        <v>0.2511166552674524</v>
       </c>
       <c r="E5">
-        <v>0.181335251734092</v>
+        <v>0.06919321945264123</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.098341790203349</v>
+        <v>0.4974975113672784</v>
       </c>
       <c r="H5">
-        <v>1.114333783749672</v>
+        <v>0.4324933128619648</v>
       </c>
       <c r="I5">
-        <v>1.146122470187269</v>
+        <v>0.472514679707718</v>
       </c>
       <c r="J5">
-        <v>0.07623059807111687</v>
+        <v>0.03190466473310227</v>
       </c>
       <c r="K5">
-        <v>0.2777499419001401</v>
+        <v>0.5966053347369638</v>
       </c>
       <c r="L5">
-        <v>0.3883803297328328</v>
+        <v>0.1840277391519081</v>
       </c>
       <c r="M5">
-        <v>0.2187243133829782</v>
+        <v>0.1717525773433763</v>
       </c>
       <c r="N5">
-        <v>2.280680842623745</v>
+        <v>1.134997581363636</v>
       </c>
       <c r="O5">
-        <v>4.495599128509909</v>
+        <v>1.905372312069971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5480332646498596</v>
+        <v>0.6913735450285969</v>
       </c>
       <c r="C6">
-        <v>0.1015801847969087</v>
+        <v>0.08794883501924744</v>
       </c>
       <c r="D6">
-        <v>0.527076374546084</v>
+        <v>0.2504877824879799</v>
       </c>
       <c r="E6">
-        <v>0.1813668302527507</v>
+        <v>0.06916779467099943</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.098623526044179</v>
+        <v>0.4973510349308725</v>
       </c>
       <c r="H6">
-        <v>1.114632128209685</v>
+        <v>0.4326698318081199</v>
       </c>
       <c r="I6">
-        <v>1.146484595493117</v>
+        <v>0.4727999146467354</v>
       </c>
       <c r="J6">
-        <v>0.07623604605143841</v>
+        <v>0.03191279029197602</v>
       </c>
       <c r="K6">
-        <v>0.2765093918467585</v>
+        <v>0.5923428838160447</v>
       </c>
       <c r="L6">
-        <v>0.3883205321099439</v>
+        <v>0.1834663459341854</v>
       </c>
       <c r="M6">
-        <v>0.2184875467053971</v>
+        <v>0.1707413639411293</v>
       </c>
       <c r="N6">
-        <v>2.281531310530494</v>
+        <v>1.136860707857869</v>
       </c>
       <c r="O6">
-        <v>4.496809172741379</v>
+        <v>1.905415697951199</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5570367621897105</v>
+        <v>0.724721765821414</v>
       </c>
       <c r="C7">
-        <v>0.1020358481912425</v>
+        <v>0.0892331220649325</v>
       </c>
       <c r="D7">
-        <v>0.5273265066729067</v>
+        <v>0.2548772595217486</v>
       </c>
       <c r="E7">
-        <v>0.1811523399589579</v>
+        <v>0.06935020003972525</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.096711324292286</v>
+        <v>0.4984377128344804</v>
       </c>
       <c r="H7">
-        <v>1.112592642204049</v>
+        <v>0.4314888884047008</v>
       </c>
       <c r="I7">
-        <v>1.144007835287944</v>
+        <v>0.4708759270775928</v>
       </c>
       <c r="J7">
-        <v>0.07619864588629977</v>
+        <v>0.03185694561789809</v>
       </c>
       <c r="K7">
-        <v>0.2851247922287001</v>
+        <v>0.6219294564904487</v>
       </c>
       <c r="L7">
-        <v>0.3887481457940396</v>
+        <v>0.1873784917211339</v>
       </c>
       <c r="M7">
-        <v>0.2201384961061095</v>
+        <v>0.1777682192874117</v>
       </c>
       <c r="N7">
-        <v>2.275680750060691</v>
+        <v>1.124019593178291</v>
       </c>
       <c r="O7">
-        <v>4.48856686274776</v>
+        <v>1.905354772771403</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5971789610449321</v>
+        <v>0.8722582256247051</v>
       </c>
       <c r="C8">
-        <v>0.1040236215549442</v>
+        <v>0.09488386348297695</v>
       </c>
       <c r="D8">
-        <v>0.5288869489732235</v>
+        <v>0.2748699903535936</v>
       </c>
       <c r="E8">
-        <v>0.1803218956010078</v>
+        <v>0.07030438142448148</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.089345133195707</v>
+        <v>0.5050142706614835</v>
       </c>
       <c r="H8">
-        <v>1.104367647627875</v>
+        <v>0.4273952827052128</v>
       </c>
       <c r="I8">
-        <v>1.133987851608683</v>
+        <v>0.4637975629221387</v>
       </c>
       <c r="J8">
-        <v>0.07604384794038133</v>
+        <v>0.031624286227383</v>
       </c>
       <c r="K8">
-        <v>0.3232534573680823</v>
+        <v>0.7525448674497568</v>
       </c>
       <c r="L8">
-        <v>0.3909448467164154</v>
+        <v>0.2050378716521593</v>
       </c>
       <c r="M8">
-        <v>0.2276089891866135</v>
+        <v>0.2089862108397718</v>
       </c>
       <c r="N8">
-        <v>2.251164834178141</v>
+        <v>1.069637168500015</v>
       </c>
       <c r="O8">
-        <v>4.456069648629068</v>
+        <v>1.911181285940458</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6773360467401517</v>
+        <v>1.163483510223159</v>
       </c>
       <c r="C9">
-        <v>0.107838071736019</v>
+        <v>0.1059247207204947</v>
       </c>
       <c r="D9">
-        <v>0.5335787150024629</v>
+        <v>0.3165071555843468</v>
       </c>
       <c r="E9">
-        <v>0.1791084238577341</v>
+        <v>0.0727378370503029</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.078745365068599</v>
+        <v>0.524818921528265</v>
       </c>
       <c r="H9">
-        <v>1.091014272861472</v>
+        <v>0.4236045251205809</v>
       </c>
       <c r="I9">
-        <v>1.117599494077826</v>
+        <v>0.4552909243939851</v>
       </c>
       <c r="J9">
-        <v>0.07577687945645639</v>
+        <v>0.03121779150014348</v>
       </c>
       <c r="K9">
-        <v>0.3983899846186603</v>
+        <v>1.009344223698832</v>
       </c>
       <c r="L9">
-        <v>0.3963579218464162</v>
+        <v>0.2412276731130447</v>
       </c>
       <c r="M9">
-        <v>0.2429145625059128</v>
+        <v>0.2711030257704508</v>
       </c>
       <c r="N9">
-        <v>2.207759514161358</v>
+        <v>0.9715015502039352</v>
       </c>
       <c r="O9">
-        <v>4.406233485156577</v>
+        <v>1.946048279111011</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7370751322752369</v>
+        <v>1.379185755290763</v>
       </c>
       <c r="C10">
-        <v>0.1105890089509103</v>
+        <v>0.114032574579241</v>
       </c>
       <c r="D10">
-        <v>0.5380131137946478</v>
+        <v>0.3487753482205136</v>
       </c>
       <c r="E10">
-        <v>0.1784681085660544</v>
+        <v>0.07489441771363481</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.073296195144536</v>
+        <v>0.5440856933726934</v>
       </c>
       <c r="H10">
-        <v>1.082887838683391</v>
+        <v>0.4236216037144231</v>
       </c>
       <c r="I10">
-        <v>1.10753994389205</v>
+        <v>0.4526148312418528</v>
       </c>
       <c r="J10">
-        <v>0.07560284245846027</v>
+        <v>0.03094974654301907</v>
       </c>
       <c r="K10">
-        <v>0.4537945989884804</v>
+        <v>1.198905217279673</v>
       </c>
       <c r="L10">
-        <v>0.4010027062249293</v>
+        <v>0.2689070147267643</v>
       </c>
       <c r="M10">
-        <v>0.2545524391944056</v>
+        <v>0.3174374002713165</v>
       </c>
       <c r="N10">
-        <v>2.178709072870237</v>
+        <v>0.9048836327060288</v>
       </c>
       <c r="O10">
-        <v>4.37805872699596</v>
+        <v>1.987486055001852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7644302222467161</v>
+        <v>1.477828797157088</v>
       </c>
       <c r="C11">
-        <v>0.1118291778907263</v>
+        <v>0.1177252191999756</v>
       </c>
       <c r="D11">
-        <v>0.5402433206924115</v>
+        <v>0.3638648439441567</v>
       </c>
       <c r="E11">
-        <v>0.1782309897829535</v>
+        <v>0.07596161393446366</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.071323849315277</v>
+        <v>0.5539929777267645</v>
       </c>
       <c r="H11">
-        <v>1.079554986077412</v>
+        <v>0.4242892579277964</v>
       </c>
       <c r="I11">
-        <v>1.103392305497302</v>
+        <v>0.4522429373620618</v>
       </c>
       <c r="J11">
-        <v>0.07552842577737895</v>
+        <v>0.03083452651514484</v>
       </c>
       <c r="K11">
-        <v>0.4790391602040813</v>
+        <v>1.285450535236151</v>
       </c>
       <c r="L11">
-        <v>0.403259510485114</v>
+        <v>0.2817687821834056</v>
       </c>
       <c r="M11">
-        <v>0.2599307079773396</v>
+        <v>0.3387028357559032</v>
       </c>
       <c r="N11">
-        <v>2.16610818986479</v>
+        <v>0.8758368281006503</v>
       </c>
       <c r="O11">
-        <v>4.36706810752915</v>
+        <v>2.010131086443522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7748140626802922</v>
+        <v>1.515268677035778</v>
       </c>
       <c r="C12">
-        <v>0.112297165186412</v>
+        <v>0.119124588064409</v>
       </c>
       <c r="D12">
-        <v>0.5411183230908563</v>
+        <v>0.3696418289690371</v>
       </c>
       <c r="E12">
-        <v>0.1781489561615679</v>
+        <v>0.07637864914499204</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.070649703512018</v>
+        <v>0.5579193584785145</v>
       </c>
       <c r="H12">
-        <v>1.078345117510935</v>
+        <v>0.4246415261202969</v>
       </c>
       <c r="I12">
-        <v>1.101883207207678</v>
+        <v>0.4522298384329702</v>
       </c>
       <c r="J12">
-        <v>0.07550092639795025</v>
+        <v>0.03079186899144926</v>
       </c>
       <c r="K12">
-        <v>0.4886039916586071</v>
+        <v>1.318277910075807</v>
       </c>
       <c r="L12">
-        <v>0.4041346725655472</v>
+        <v>0.2866809162868407</v>
       </c>
       <c r="M12">
-        <v>0.2619792701753667</v>
+        <v>0.3467855280256629</v>
       </c>
       <c r="N12">
-        <v>2.161424808868465</v>
+        <v>0.8650247061687542</v>
       </c>
       <c r="O12">
-        <v>4.363168359559921</v>
+        <v>2.019283511902557</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7725766141394104</v>
+        <v>1.507201321227058</v>
       </c>
       <c r="C13">
-        <v>0.1121964489174871</v>
+        <v>0.1188231554326791</v>
       </c>
       <c r="D13">
-        <v>0.5409285229024903</v>
+        <v>0.3683947891999679</v>
       </c>
       <c r="E13">
-        <v>0.1781662790116449</v>
+        <v>0.07628825030233344</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.070791659337303</v>
+        <v>0.5570658000388846</v>
       </c>
       <c r="H13">
-        <v>1.078603364163158</v>
+        <v>0.4245611607465207</v>
       </c>
       <c r="I13">
-        <v>1.102205483821201</v>
+        <v>0.4522268769682825</v>
       </c>
       <c r="J13">
-        <v>0.07550681865853193</v>
+        <v>0.03080101260093571</v>
       </c>
       <c r="K13">
-        <v>0.4865438093829084</v>
+        <v>1.311205363326906</v>
       </c>
       <c r="L13">
-        <v>0.4039452784244872</v>
+        <v>0.2856211010884806</v>
       </c>
       <c r="M13">
-        <v>0.261537547847503</v>
+        <v>0.345043395464927</v>
       </c>
       <c r="N13">
-        <v>2.162429532160423</v>
+        <v>0.8673448557642964</v>
       </c>
       <c r="O13">
-        <v>4.363996587485786</v>
+        <v>2.017286177594883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7652840090608493</v>
+        <v>1.480907209856383</v>
       </c>
       <c r="C14">
-        <v>0.1118677124292518</v>
+        <v>0.1178403226573721</v>
       </c>
       <c r="D14">
-        <v>0.5403146978574398</v>
+        <v>0.3643388359024442</v>
       </c>
       <c r="E14">
-        <v>0.1782240855182771</v>
+        <v>0.07599566182047823</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.07126692969517</v>
+        <v>0.5543124403686335</v>
       </c>
       <c r="H14">
-        <v>1.079454403765084</v>
+        <v>0.4243162192318124</v>
       </c>
       <c r="I14">
-        <v>1.103266918619497</v>
+        <v>0.4522392633183081</v>
       </c>
       <c r="J14">
-        <v>0.07552614976345318</v>
+        <v>0.03083099748798102</v>
       </c>
       <c r="K14">
-        <v>0.4798259625393655</v>
+        <v>1.288150113210776</v>
       </c>
       <c r="L14">
-        <v>0.4033310992952579</v>
+        <v>0.2821720548380426</v>
       </c>
       <c r="M14">
-        <v>0.2600990063349826</v>
+        <v>0.3393671862798655</v>
       </c>
       <c r="N14">
-        <v>2.165721115831863</v>
+        <v>0.8749435173185436</v>
       </c>
       <c r="O14">
-        <v>4.366742021375501</v>
+        <v>2.01087230570414</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7608203194424448</v>
+        <v>1.464812841218276</v>
       </c>
       <c r="C15">
-        <v>0.1116661379408086</v>
+        <v>0.1172384582756649</v>
       </c>
       <c r="D15">
-        <v>0.5399426759923074</v>
+        <v>0.3618627606427225</v>
       </c>
       <c r="E15">
-        <v>0.178260503102031</v>
+        <v>0.07581814032520739</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.071567516375993</v>
+        <v>0.5526489987754957</v>
       </c>
       <c r="H15">
-        <v>1.079982485922159</v>
+        <v>0.4241792755148737</v>
       </c>
       <c r="I15">
-        <v>1.103925087276771</v>
+        <v>0.4522636730599601</v>
       </c>
       <c r="J15">
-        <v>0.07553807917068234</v>
+        <v>0.03084949117484648</v>
       </c>
       <c r="K15">
-        <v>0.475711755320134</v>
+        <v>1.274035503189396</v>
       </c>
       <c r="L15">
-        <v>0.4029575704467163</v>
+        <v>0.2800649258382322</v>
       </c>
       <c r="M15">
-        <v>0.259219406499831</v>
+        <v>0.3358943329972703</v>
       </c>
       <c r="N15">
-        <v>2.167748804078425</v>
+        <v>0.8796225006001928</v>
       </c>
       <c r="O15">
-        <v>4.368457806765548</v>
+        <v>2.007019766795992</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7352909605246509</v>
+        <v>1.37275059090689</v>
       </c>
       <c r="C16">
-        <v>0.1105077329332431</v>
+        <v>0.1137913740861478</v>
       </c>
       <c r="D16">
-        <v>0.5378716369745149</v>
+        <v>0.347797802354151</v>
       </c>
       <c r="E16">
-        <v>0.1784846921356422</v>
+        <v>0.07482645158947498</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.073435276582529</v>
+        <v>0.5434620975195656</v>
       </c>
       <c r="H16">
-        <v>1.083112960961984</v>
+        <v>0.4235916324294635</v>
       </c>
       <c r="I16">
-        <v>1.107819616176418</v>
+        <v>0.4526566662849945</v>
       </c>
       <c r="J16">
-        <v>0.07560780116446342</v>
+        <v>0.03095741224324744</v>
       </c>
       <c r="K16">
-        <v>0.4521455764163704</v>
+        <v>1.193256376563227</v>
       </c>
       <c r="L16">
-        <v>0.400858102748856</v>
+        <v>0.2680721420110643</v>
       </c>
       <c r="M16">
-        <v>0.2542026352056936</v>
+        <v>0.3160516783301546</v>
       </c>
       <c r="N16">
-        <v>2.17954492845456</v>
+        <v>0.9068077607323524</v>
       </c>
       <c r="O16">
-        <v>4.378813699796012</v>
+        <v>1.98608516509384</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.719674963178619</v>
+        <v>1.316414101752599</v>
       </c>
       <c r="C17">
-        <v>0.1097941939234559</v>
+        <v>0.1116781000234326</v>
       </c>
       <c r="D17">
-        <v>0.5366555602802663</v>
+        <v>0.3392772495084557</v>
       </c>
       <c r="E17">
-        <v>0.1786360757258123</v>
+        <v>0.07424051189105363</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.074710747364492</v>
+        <v>0.5381261103401016</v>
       </c>
       <c r="H17">
-        <v>1.085126525855102</v>
+        <v>0.4234032986988865</v>
       </c>
       <c r="I17">
-        <v>1.110318464844369</v>
+        <v>0.4531185676628446</v>
       </c>
       <c r="J17">
-        <v>0.07565178875010492</v>
+        <v>0.03102534371095533</v>
       </c>
       <c r="K17">
-        <v>0.4376984982934857</v>
+        <v>1.14378776077973</v>
       </c>
       <c r="L17">
-        <v>0.3996069038345951</v>
+        <v>0.260786122078656</v>
       </c>
       <c r="M17">
-        <v>0.2511464374037473</v>
+        <v>0.3039289618606702</v>
       </c>
       <c r="N17">
-        <v>2.186938780759731</v>
+        <v>0.9238116673866834</v>
       </c>
       <c r="O17">
-        <v>4.385634124994681</v>
+        <v>1.974236273210693</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7107099927743832</v>
+        <v>1.284058977579292</v>
       </c>
       <c r="C18">
-        <v>0.1093827278427284</v>
+        <v>0.1104629821908887</v>
       </c>
       <c r="D18">
-        <v>0.5359761607379454</v>
+        <v>0.3344148486996374</v>
       </c>
       <c r="E18">
-        <v>0.1787282475454344</v>
+        <v>0.07391157145609561</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.075492045222447</v>
+        <v>0.5351638942354242</v>
       </c>
       <c r="H18">
-        <v>1.086318934445856</v>
+        <v>0.4233567974986414</v>
       </c>
       <c r="I18">
-        <v>1.11179607478152</v>
+        <v>0.4534634325443676</v>
       </c>
       <c r="J18">
-        <v>0.0756775368550171</v>
+        <v>0.03106504759124995</v>
       </c>
       <c r="K18">
-        <v>0.4293927896506204</v>
+        <v>1.115363582092982</v>
       </c>
       <c r="L18">
-        <v>0.3989007966039679</v>
+        <v>0.2566206606572905</v>
       </c>
       <c r="M18">
-        <v>0.2493965231576851</v>
+        <v>0.2969737758501125</v>
       </c>
       <c r="N18">
-        <v>2.191249352704051</v>
+        <v>0.9337098733895521</v>
       </c>
       <c r="O18">
-        <v>4.389728972249145</v>
+        <v>1.967776289743398</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.707677539766479</v>
+        <v>1.273112024090892</v>
       </c>
       <c r="C19">
-        <v>0.1092432315289997</v>
+        <v>0.1100516174345501</v>
       </c>
       <c r="D19">
-        <v>0.5357495769956273</v>
+        <v>0.3327750030132535</v>
       </c>
       <c r="E19">
-        <v>0.1787603321995572</v>
+        <v>0.07380156959910344</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.075764771417283</v>
+        <v>0.5341789928533132</v>
       </c>
       <c r="H19">
-        <v>1.086728551196927</v>
+        <v>0.4233515369131027</v>
       </c>
       <c r="I19">
-        <v>1.112303299175988</v>
+        <v>0.4535936173494299</v>
       </c>
       <c r="J19">
-        <v>0.07568633168870775</v>
+        <v>0.03107859886952014</v>
       </c>
       <c r="K19">
-        <v>0.4265813018823792</v>
+        <v>1.105744320571858</v>
       </c>
       <c r="L19">
-        <v>0.3986640518575655</v>
+        <v>0.2552145638003793</v>
       </c>
       <c r="M19">
-        <v>0.2488053994300188</v>
+        <v>0.2946217848892942</v>
       </c>
       <c r="N19">
-        <v>2.192718770734854</v>
+        <v>0.9370813156417235</v>
       </c>
       <c r="O19">
-        <v>4.391144958074932</v>
+        <v>1.965649122306388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7213355651235247</v>
+        <v>1.322406156172377</v>
       </c>
       <c r="C20">
-        <v>0.109870260946785</v>
+        <v>0.1119030192319457</v>
       </c>
       <c r="D20">
-        <v>0.5367829391585701</v>
+        <v>0.3401802756328749</v>
       </c>
       <c r="E20">
-        <v>0.1786194330771647</v>
+        <v>0.07430204658733253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.07457003723772</v>
+        <v>0.5386829979944139</v>
       </c>
       <c r="H20">
-        <v>1.084908633583268</v>
+        <v>0.4234169165529522</v>
       </c>
       <c r="I20">
-        <v>1.110048283971413</v>
+        <v>0.4530611580253776</v>
       </c>
       <c r="J20">
-        <v>0.07564705989223608</v>
+        <v>0.03101804687649157</v>
       </c>
       <c r="K20">
-        <v>0.4392360183262554</v>
+        <v>1.149050725442208</v>
       </c>
       <c r="L20">
-        <v>0.3997386947276595</v>
+        <v>0.2615590968532047</v>
       </c>
       <c r="M20">
-        <v>0.2514709553992631</v>
+        <v>0.3052176158949607</v>
       </c>
       <c r="N20">
-        <v>2.186145708302253</v>
+        <v>0.9219893140426421</v>
       </c>
       <c r="O20">
-        <v>4.384890289349727</v>
+        <v>1.975460624910511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7674253497436041</v>
+        <v>1.48862800295376</v>
       </c>
       <c r="C21">
-        <v>0.1119643149163849</v>
+        <v>0.1181289726031522</v>
       </c>
       <c r="D21">
-        <v>0.5404941673963464</v>
+        <v>0.3655284279779067</v>
       </c>
       <c r="E21">
-        <v>0.1782068960363894</v>
+        <v>0.0760812474413548</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.071125357932218</v>
+        <v>0.5551163415278069</v>
       </c>
       <c r="H21">
-        <v>1.079203016770578</v>
+        <v>0.4243854280312576</v>
       </c>
       <c r="I21">
-        <v>1.102953480550937</v>
+        <v>0.4522321078205422</v>
       </c>
       <c r="J21">
-        <v>0.07552045330167179</v>
+        <v>0.03082216370079482</v>
       </c>
       <c r="K21">
-        <v>0.4817990188581973</v>
+        <v>1.294920439735421</v>
       </c>
       <c r="L21">
-        <v>0.403510941647383</v>
+        <v>0.2831839695266325</v>
       </c>
       <c r="M21">
-        <v>0.2605212184721992</v>
+        <v>0.341033589743148</v>
       </c>
       <c r="N21">
-        <v>2.164751901765182</v>
+        <v>0.8727064711307109</v>
       </c>
       <c r="O21">
-        <v>4.36592850947369</v>
+        <v>2.012740288273648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7976934190824352</v>
+        <v>1.597770051006194</v>
       </c>
       <c r="C22">
-        <v>0.1133233445289221</v>
+        <v>0.1222043009478142</v>
       </c>
       <c r="D22">
-        <v>0.5430972087858805</v>
+        <v>0.3824636258773921</v>
       </c>
       <c r="E22">
-        <v>0.1779824853277994</v>
+        <v>0.07731957751361307</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.069297993068645</v>
+        <v>0.56688007765392</v>
       </c>
       <c r="H22">
-        <v>1.075778333868016</v>
+        <v>0.4256003426490338</v>
       </c>
       <c r="I22">
-        <v>1.098675171637538</v>
+        <v>0.4524378939864917</v>
       </c>
       <c r="J22">
-        <v>0.07544167428985649</v>
+        <v>0.03069982331837107</v>
       </c>
       <c r="K22">
-        <v>0.5096468076805252</v>
+        <v>1.390577524095988</v>
       </c>
       <c r="L22">
-        <v>0.4060960985372901</v>
+        <v>0.2975613318180876</v>
       </c>
       <c r="M22">
-        <v>0.2665055378910068</v>
+        <v>0.3646173759518021</v>
       </c>
       <c r="N22">
-        <v>2.151284476661425</v>
+        <v>0.8415920725500237</v>
       </c>
       <c r="O22">
-        <v>4.355063758792994</v>
+        <v>2.040485339591186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7815256935313641</v>
+        <v>1.53946862689503</v>
       </c>
       <c r="C23">
-        <v>0.1125988859959648</v>
+        <v>0.1200284965233465</v>
       </c>
       <c r="D23">
-        <v>0.5416917227899773</v>
+        <v>0.3733899115984087</v>
       </c>
       <c r="E23">
-        <v>0.178098131270211</v>
+        <v>0.07665156732294776</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.07023453422498</v>
+        <v>0.5605042975090271</v>
       </c>
       <c r="H23">
-        <v>1.077578350070524</v>
+        <v>0.4248970965043952</v>
       </c>
       <c r="I23">
-        <v>1.100925809290096</v>
+        <v>0.4522575283965864</v>
       </c>
       <c r="J23">
-        <v>0.07548335824042418</v>
+        <v>0.03076459593320546</v>
       </c>
       <c r="K23">
-        <v>0.4947813321698504</v>
+        <v>1.339490687162112</v>
       </c>
       <c r="L23">
-        <v>0.4047054347583128</v>
+        <v>0.2898645454509108</v>
       </c>
       <c r="M23">
-        <v>0.2633052958123301</v>
+        <v>0.3520131417360943</v>
       </c>
       <c r="N23">
-        <v>2.158425214617883</v>
+        <v>0.8580960389734784</v>
       </c>
       <c r="O23">
-        <v>4.360722828116906</v>
+        <v>2.025357030934174</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7205847668246577</v>
+        <v>1.319697044948526</v>
       </c>
       <c r="C24">
-        <v>0.1098358749153832</v>
+        <v>0.1118013338137658</v>
       </c>
       <c r="D24">
-        <v>0.5367252896715229</v>
+        <v>0.3397719051253318</v>
       </c>
       <c r="E24">
-        <v>0.1786269412079999</v>
+        <v>0.07427420210846059</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.074633502722904</v>
+        <v>0.5384309012114841</v>
       </c>
       <c r="H24">
-        <v>1.085007034322757</v>
+        <v>0.4234105678488191</v>
       </c>
       <c r="I24">
-        <v>1.110170305060837</v>
+        <v>0.4530868663455472</v>
       </c>
       <c r="J24">
-        <v>0.07564919637930068</v>
+        <v>0.03102134375404209</v>
       </c>
       <c r="K24">
-        <v>0.4385409051351132</v>
+        <v>1.146671290032884</v>
       </c>
       <c r="L24">
-        <v>0.3996790708652753</v>
+        <v>0.2612095623792072</v>
       </c>
       <c r="M24">
-        <v>0.251324218577345</v>
+        <v>0.304634971006621</v>
       </c>
       <c r="N24">
-        <v>2.186504070246562</v>
+        <v>0.9228128191141027</v>
       </c>
       <c r="O24">
-        <v>4.385226036367925</v>
+        <v>1.974906001151794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6555004616817257</v>
+        <v>1.084437734395152</v>
       </c>
       <c r="C25">
-        <v>0.1068151697837436</v>
+        <v>0.1029401403927892</v>
       </c>
       <c r="D25">
-        <v>0.5321355428517194</v>
+        <v>0.3049633617915788</v>
       </c>
       <c r="E25">
-        <v>0.1793924538779237</v>
+        <v>0.0720167268594949</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.081201808120966</v>
+        <v>0.5186712003958007</v>
       </c>
       <c r="H25">
-        <v>1.094330365726435</v>
+        <v>0.4241545412180443</v>
       </c>
       <c r="I25">
-        <v>1.121684602561594</v>
+        <v>0.4569871023812269</v>
       </c>
       <c r="J25">
-        <v>0.07584520522274385</v>
+        <v>0.03132240690454946</v>
       </c>
       <c r="K25">
-        <v>0.3780265678463763</v>
+        <v>0.9397537739391169</v>
       </c>
       <c r="L25">
-        <v>0.3947758320678219</v>
+        <v>0.2312564148165279</v>
       </c>
       <c r="M25">
-        <v>0.2387044997657135</v>
+        <v>0.2541876842693078</v>
       </c>
       <c r="N25">
-        <v>2.219002620271689</v>
+        <v>0.9971094637679601</v>
       </c>
       <c r="O25">
-        <v>4.418231317202867</v>
+        <v>1.933953299509113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9123420296999427</v>
+        <v>0.8398314430647247</v>
       </c>
       <c r="C2">
-        <v>0.09641149399065085</v>
+        <v>0.0943576109482791</v>
       </c>
       <c r="D2">
-        <v>0.2804446772155416</v>
+        <v>0.2311910572083207</v>
       </c>
       <c r="E2">
-        <v>0.07060005407010017</v>
+        <v>0.03938781817989856</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5072458861344202</v>
+        <v>2.05013365311541</v>
       </c>
       <c r="H2">
-        <v>0.4265651228859468</v>
+        <v>0.05320729272268521</v>
       </c>
       <c r="I2">
-        <v>0.4622328645837364</v>
+        <v>0.05608052380175765</v>
       </c>
       <c r="J2">
-        <v>0.03156460510417514</v>
+        <v>1.297310133793331</v>
       </c>
       <c r="K2">
-        <v>0.7879629317137926</v>
+        <v>1.46049501885188</v>
       </c>
       <c r="L2">
-        <v>0.209923315670288</v>
+        <v>0.01021761635906504</v>
       </c>
       <c r="M2">
-        <v>0.2175002732221962</v>
+        <v>0.829138966201441</v>
       </c>
       <c r="N2">
-        <v>1.055467639771375</v>
+        <v>0.2099963384667589</v>
       </c>
       <c r="O2">
-        <v>1.914292416395512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2126718936287446</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7962194166052541</v>
+        <v>0.7332784354591411</v>
       </c>
       <c r="C3">
-        <v>0.09197742832908062</v>
+        <v>0.08126780035543391</v>
       </c>
       <c r="D3">
-        <v>0.2644561641774743</v>
+        <v>0.2127748248783519</v>
       </c>
       <c r="E3">
-        <v>0.06978451625046134</v>
+        <v>0.03625882451797047</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5012845671454613</v>
+        <v>1.931607083253141</v>
       </c>
       <c r="H3">
-        <v>0.4292884729961202</v>
+        <v>0.06116548854628778</v>
       </c>
       <c r="I3">
-        <v>0.4671707652239121</v>
+        <v>0.06433982550536843</v>
       </c>
       <c r="J3">
-        <v>0.03174146146074097</v>
+        <v>1.244479726048553</v>
       </c>
       <c r="K3">
-        <v>0.6852800377919408</v>
+        <v>1.392822196664753</v>
       </c>
       <c r="L3">
-        <v>0.195869089159558</v>
+        <v>0.008411333546447963</v>
       </c>
       <c r="M3">
-        <v>0.1928717972749645</v>
+        <v>0.7219543038043241</v>
       </c>
       <c r="N3">
-        <v>1.097200276555846</v>
+        <v>0.1891554691842217</v>
       </c>
       <c r="O3">
-        <v>1.90700778919097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1873262059620444</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7251121625936889</v>
+        <v>0.6679218955036674</v>
       </c>
       <c r="C4">
-        <v>0.08924813987809443</v>
+        <v>0.07343350189177045</v>
       </c>
       <c r="D4">
-        <v>0.2549289538565205</v>
+        <v>0.2015371453815931</v>
       </c>
       <c r="E4">
-        <v>0.06935241491022381</v>
+        <v>0.03432500396829496</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4984513801557853</v>
+        <v>1.858627633021015</v>
       </c>
       <c r="H4">
-        <v>0.4314756715915138</v>
+        <v>0.06650921874379723</v>
       </c>
       <c r="I4">
-        <v>0.4708541730592017</v>
+        <v>0.06991564280953444</v>
       </c>
       <c r="J4">
-        <v>0.03185629969260972</v>
+        <v>1.211994840542403</v>
       </c>
       <c r="K4">
-        <v>0.6222756653527597</v>
+        <v>1.350927234440505</v>
       </c>
       <c r="L4">
-        <v>0.1874244790413186</v>
+        <v>0.007357156766660822</v>
       </c>
       <c r="M4">
-        <v>0.1778505504498291</v>
+        <v>0.656501624051387</v>
       </c>
       <c r="N4">
-        <v>1.1238705719542</v>
+        <v>0.1764276063172403</v>
       </c>
       <c r="O4">
-        <v>1.905357326014339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1718105933153495</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6961761110295299</v>
+        <v>0.6410930683505853</v>
       </c>
       <c r="C5">
-        <v>0.08813396842437982</v>
+        <v>0.07050613453118615</v>
       </c>
       <c r="D5">
-        <v>0.2511166552674524</v>
+        <v>0.1969185985798134</v>
       </c>
       <c r="E5">
-        <v>0.06919321945264123</v>
+        <v>0.03350999458940151</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4974975113672784</v>
+        <v>1.826058086035147</v>
       </c>
       <c r="H5">
-        <v>0.4324933128619648</v>
+        <v>0.06881646031230249</v>
       </c>
       <c r="I5">
-        <v>0.472514679707718</v>
+        <v>0.07243605534670783</v>
       </c>
       <c r="J5">
-        <v>0.03190466473310227</v>
+        <v>1.197330624066325</v>
       </c>
       <c r="K5">
-        <v>0.5966053347369638</v>
+        <v>1.331762487786222</v>
       </c>
       <c r="L5">
-        <v>0.1840277391519081</v>
+        <v>0.006943636153856403</v>
       </c>
       <c r="M5">
-        <v>0.1717525773433763</v>
+        <v>0.6301552594460418</v>
       </c>
       <c r="N5">
-        <v>1.134997581363636</v>
+        <v>0.1713425235790567</v>
       </c>
       <c r="O5">
-        <v>1.905372312069971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1655046307642181</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6913735450285969</v>
+        <v>0.6363868399512</v>
       </c>
       <c r="C6">
-        <v>0.08794883501924744</v>
+        <v>0.07029114577045448</v>
       </c>
       <c r="D6">
-        <v>0.2504877824879799</v>
+        <v>0.1960853108734</v>
       </c>
       <c r="E6">
-        <v>0.06916779467099943</v>
+        <v>0.03334591400307829</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4973510349308725</v>
+        <v>1.817261824764685</v>
       </c>
       <c r="H6">
-        <v>0.4326698318081199</v>
+        <v>0.0692281840754263</v>
       </c>
       <c r="I6">
-        <v>0.4727999146467354</v>
+        <v>0.07302177309624991</v>
       </c>
       <c r="J6">
-        <v>0.03191279029197602</v>
+        <v>1.193170829961531</v>
       </c>
       <c r="K6">
-        <v>0.5923428838160447</v>
+        <v>1.326128545847382</v>
       </c>
       <c r="L6">
-        <v>0.1834663459341854</v>
+        <v>0.006880276342946523</v>
       </c>
       <c r="M6">
-        <v>0.1707413639411293</v>
+        <v>0.626087171096458</v>
       </c>
       <c r="N6">
-        <v>1.136860707857869</v>
+        <v>0.1706051960982222</v>
       </c>
       <c r="O6">
-        <v>1.905415697951199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1644666387747051</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.724721765821414</v>
+        <v>0.6668678672980946</v>
       </c>
       <c r="C7">
-        <v>0.0892331220649325</v>
+        <v>0.07412726024271876</v>
       </c>
       <c r="D7">
-        <v>0.2548772595217486</v>
+        <v>0.2012909788441135</v>
       </c>
       <c r="E7">
-        <v>0.06935020003972525</v>
+        <v>0.03423605802950824</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4984377128344804</v>
+        <v>1.848941159493478</v>
       </c>
       <c r="H7">
-        <v>0.4314888884047008</v>
+        <v>0.06659779508618602</v>
       </c>
       <c r="I7">
-        <v>0.4708759270775928</v>
+        <v>0.07036497517307705</v>
       </c>
       <c r="J7">
-        <v>0.03185694561789809</v>
+        <v>1.207090882259351</v>
       </c>
       <c r="K7">
-        <v>0.6219294564904487</v>
+        <v>1.343986025957165</v>
       </c>
       <c r="L7">
-        <v>0.1873784917211339</v>
+        <v>0.007363749875299419</v>
       </c>
       <c r="M7">
-        <v>0.1777682192874117</v>
+        <v>0.6569705674512392</v>
       </c>
       <c r="N7">
-        <v>1.124019593178291</v>
+        <v>0.1766498376518726</v>
       </c>
       <c r="O7">
-        <v>1.905354772771403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1717485653705353</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8722582256247051</v>
+        <v>0.8021374224931321</v>
       </c>
       <c r="C8">
-        <v>0.09488386348297695</v>
+        <v>0.09077451011980031</v>
       </c>
       <c r="D8">
-        <v>0.2748699903535936</v>
+        <v>0.2245821234912171</v>
       </c>
       <c r="E8">
-        <v>0.07030438142448148</v>
+        <v>0.03820772177179599</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5050142706614835</v>
+        <v>1.997065945241303</v>
       </c>
       <c r="H8">
-        <v>0.4273952827052128</v>
+        <v>0.05592166491377082</v>
       </c>
       <c r="I8">
-        <v>0.4637975629221387</v>
+        <v>0.05931792425896454</v>
       </c>
       <c r="J8">
-        <v>0.031624286227383</v>
+        <v>1.272889934561874</v>
       </c>
       <c r="K8">
-        <v>0.7525448674497568</v>
+        <v>1.42839487250049</v>
       </c>
       <c r="L8">
-        <v>0.2050378716521593</v>
+        <v>0.009597213467285926</v>
       </c>
       <c r="M8">
-        <v>0.2089862108397718</v>
+        <v>0.7931875182530064</v>
       </c>
       <c r="N8">
-        <v>1.069637168500015</v>
+        <v>0.2031835033876703</v>
       </c>
       <c r="O8">
-        <v>1.911181285940458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2039505723499637</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.163483510223159</v>
+        <v>1.069554261820599</v>
       </c>
       <c r="C9">
-        <v>0.1059247207204947</v>
+        <v>0.1239248865463907</v>
       </c>
       <c r="D9">
-        <v>0.3165071555843468</v>
+        <v>0.2712229459623643</v>
       </c>
       <c r="E9">
-        <v>0.0727378370503029</v>
+        <v>0.0460588954878105</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.524818921528265</v>
+        <v>2.302928584253806</v>
       </c>
       <c r="H9">
-        <v>0.4236045251205809</v>
+        <v>0.03868755541963687</v>
       </c>
       <c r="I9">
-        <v>0.4552909243939851</v>
+        <v>0.04119917561376951</v>
       </c>
       <c r="J9">
-        <v>0.03121779150014348</v>
+        <v>1.410142687043276</v>
       </c>
       <c r="K9">
-        <v>1.009344223698832</v>
+        <v>1.603315100534687</v>
       </c>
       <c r="L9">
-        <v>0.2412276731130447</v>
+        <v>0.01446286816350195</v>
       </c>
       <c r="M9">
-        <v>0.2711030257704508</v>
+        <v>1.062226275324605</v>
       </c>
       <c r="N9">
-        <v>0.9715015502039352</v>
+        <v>0.2553418467977764</v>
       </c>
       <c r="O9">
-        <v>1.946048279111011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2675293187699523</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.379185755290763</v>
+        <v>1.267032294258257</v>
       </c>
       <c r="C10">
-        <v>0.114032574579241</v>
+        <v>0.1510317880262733</v>
       </c>
       <c r="D10">
-        <v>0.3487753482205136</v>
+        <v>0.3014324343933623</v>
       </c>
       <c r="E10">
-        <v>0.07489441771363481</v>
+        <v>0.05003225678838596</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5440856933726934</v>
+        <v>2.477583944538594</v>
       </c>
       <c r="H10">
-        <v>0.4236216037144231</v>
+        <v>0.02921944741722005</v>
       </c>
       <c r="I10">
-        <v>0.4526148312418528</v>
+        <v>0.03111620932275905</v>
       </c>
       <c r="J10">
-        <v>0.03094974654301907</v>
+        <v>1.485971118178526</v>
       </c>
       <c r="K10">
-        <v>1.198905217279673</v>
+        <v>1.696739779826103</v>
       </c>
       <c r="L10">
-        <v>0.2689070147267643</v>
+        <v>0.01909095411412309</v>
       </c>
       <c r="M10">
-        <v>0.3174374002713165</v>
+        <v>1.265302791968509</v>
       </c>
       <c r="N10">
-        <v>0.9048836327060288</v>
+        <v>0.2855330400808498</v>
       </c>
       <c r="O10">
-        <v>1.987486055001852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3110505401009505</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.477828797157088</v>
+        <v>1.358678273736444</v>
       </c>
       <c r="C11">
-        <v>0.1177252191999756</v>
+        <v>0.1737412763511799</v>
       </c>
       <c r="D11">
-        <v>0.3638648439441567</v>
+        <v>0.2768834190352152</v>
       </c>
       <c r="E11">
-        <v>0.07596161393446366</v>
+        <v>0.03864609665277818</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5539929777267645</v>
+        <v>2.163616114115115</v>
       </c>
       <c r="H11">
-        <v>0.4242892579277964</v>
+        <v>0.04717216993881834</v>
       </c>
       <c r="I11">
-        <v>0.4522429373620618</v>
+        <v>0.02962367213005646</v>
       </c>
       <c r="J11">
-        <v>0.03083452651514484</v>
+        <v>1.322155790916469</v>
       </c>
       <c r="K11">
-        <v>1.285450535236151</v>
+        <v>1.476196259755284</v>
       </c>
       <c r="L11">
-        <v>0.2817687821834056</v>
+        <v>0.03060199055450497</v>
       </c>
       <c r="M11">
-        <v>0.3387028357559032</v>
+        <v>1.378921668284249</v>
       </c>
       <c r="N11">
-        <v>0.8758368281006503</v>
+        <v>0.2278082031877062</v>
       </c>
       <c r="O11">
-        <v>2.010131086443522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2995724685303927</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.515268677035778</v>
+        <v>1.395523969195096</v>
       </c>
       <c r="C12">
-        <v>0.119124588064409</v>
+        <v>0.1864931119797859</v>
       </c>
       <c r="D12">
-        <v>0.3696418289690371</v>
+        <v>0.2509761442384217</v>
       </c>
       <c r="E12">
-        <v>0.07637864914499204</v>
+        <v>0.03104974722865794</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5579193584785145</v>
+        <v>1.894497406805129</v>
       </c>
       <c r="H12">
-        <v>0.4246415261202969</v>
+        <v>0.08640806408605073</v>
       </c>
       <c r="I12">
-        <v>0.4522298384329702</v>
+        <v>0.02954338336377216</v>
       </c>
       <c r="J12">
-        <v>0.03079186899144926</v>
+        <v>1.183964688536207</v>
       </c>
       <c r="K12">
-        <v>1.318277910075807</v>
+        <v>1.295273482705205</v>
       </c>
       <c r="L12">
-        <v>0.2866809162868407</v>
+        <v>0.04431731651131443</v>
       </c>
       <c r="M12">
-        <v>0.3467855280256629</v>
+        <v>1.431238768185978</v>
       </c>
       <c r="N12">
-        <v>0.8650247061687542</v>
+        <v>0.1786079120213344</v>
       </c>
       <c r="O12">
-        <v>2.019283511902557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2807883936863149</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.507201321227058</v>
+        <v>1.390832862103565</v>
       </c>
       <c r="C13">
-        <v>0.1188231554326791</v>
+        <v>0.1933213796161937</v>
       </c>
       <c r="D13">
-        <v>0.3683947891999679</v>
+        <v>0.2223729920502393</v>
       </c>
       <c r="E13">
-        <v>0.07628825030233344</v>
+        <v>0.02581273255484007</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5570658000388846</v>
+        <v>1.630319438290911</v>
       </c>
       <c r="H13">
-        <v>0.4245611607465207</v>
+        <v>0.1438152372042367</v>
       </c>
       <c r="I13">
-        <v>0.4522268769682825</v>
+        <v>0.03106466309112488</v>
       </c>
       <c r="J13">
-        <v>0.03080101260093571</v>
+        <v>1.050276117575521</v>
       </c>
       <c r="K13">
-        <v>1.311205363326906</v>
+        <v>1.124179999501997</v>
       </c>
       <c r="L13">
-        <v>0.2856211010884806</v>
+        <v>0.0603108392293592</v>
       </c>
       <c r="M13">
-        <v>0.345043395464927</v>
+        <v>1.440144973654128</v>
       </c>
       <c r="N13">
-        <v>0.8673448557642964</v>
+        <v>0.133862522999209</v>
       </c>
       <c r="O13">
-        <v>2.017286177594883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2554825920988115</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.480907209856383</v>
+        <v>1.368547772037431</v>
       </c>
       <c r="C14">
-        <v>0.1178403226573721</v>
+        <v>0.1957208880611034</v>
       </c>
       <c r="D14">
-        <v>0.3643388359024442</v>
+        <v>0.2014103632576649</v>
       </c>
       <c r="E14">
-        <v>0.07599566182047823</v>
+        <v>0.02359096540301131</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5543124403686335</v>
+        <v>1.44935457077797</v>
       </c>
       <c r="H14">
-        <v>0.4243162192318124</v>
+        <v>0.1948104614769193</v>
       </c>
       <c r="I14">
-        <v>0.4522392633183081</v>
+        <v>0.03300230072461829</v>
       </c>
       <c r="J14">
-        <v>0.03083099748798102</v>
+        <v>0.9594670194681498</v>
       </c>
       <c r="K14">
-        <v>1.288150113210776</v>
+        <v>1.010147387613706</v>
       </c>
       <c r="L14">
-        <v>0.2821720548380426</v>
+        <v>0.07308742378225475</v>
       </c>
       <c r="M14">
-        <v>0.3393671862798655</v>
+        <v>1.427020516278304</v>
       </c>
       <c r="N14">
-        <v>0.8749435173185436</v>
+        <v>0.1057605656087972</v>
       </c>
       <c r="O14">
-        <v>2.01087230570414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2350431853411159</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.464812841218276</v>
+        <v>1.353947833826425</v>
       </c>
       <c r="C15">
-        <v>0.1172384582756649</v>
+        <v>0.1953141410110391</v>
       </c>
       <c r="D15">
-        <v>0.3618627606427225</v>
+        <v>0.1956068810603284</v>
       </c>
       <c r="E15">
-        <v>0.07581814032520739</v>
+        <v>0.02319499406897396</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5526489987754957</v>
+        <v>1.401819808899916</v>
       </c>
       <c r="H15">
-        <v>0.4241792755148737</v>
+        <v>0.2080928751600197</v>
       </c>
       <c r="I15">
-        <v>0.4522636730599601</v>
+        <v>0.0340228927000048</v>
       </c>
       <c r="J15">
-        <v>0.03084949117484648</v>
+        <v>0.9360546728720749</v>
       </c>
       <c r="K15">
-        <v>1.274035503189396</v>
+        <v>0.9810970127237653</v>
       </c>
       <c r="L15">
-        <v>0.2800649258382322</v>
+        <v>0.07603019154947077</v>
       </c>
       <c r="M15">
-        <v>0.3358943329972703</v>
+        <v>1.414796241041444</v>
       </c>
       <c r="N15">
-        <v>0.8796225006001928</v>
+        <v>0.09916666743190916</v>
       </c>
       <c r="O15">
-        <v>2.007019766795992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.228716783156333</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.37275059090689</v>
+        <v>1.269117858599316</v>
       </c>
       <c r="C16">
-        <v>0.1137913740861478</v>
+        <v>0.1823331672496948</v>
       </c>
       <c r="D16">
-        <v>0.347797802354151</v>
+        <v>0.1890103815141941</v>
       </c>
       <c r="E16">
-        <v>0.07482645158947498</v>
+        <v>0.02268350271395619</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5434620975195656</v>
+        <v>1.38014634084027</v>
       </c>
       <c r="H16">
-        <v>0.4235916324294635</v>
+        <v>0.199290943440559</v>
       </c>
       <c r="I16">
-        <v>0.4526566662849945</v>
+        <v>0.03816926622318295</v>
       </c>
       <c r="J16">
-        <v>0.03095741224324744</v>
+        <v>0.9300054354905853</v>
       </c>
       <c r="K16">
-        <v>1.193256376563227</v>
+        <v>0.975139511052781</v>
       </c>
       <c r="L16">
-        <v>0.2680721420110643</v>
+        <v>0.07028158771883852</v>
       </c>
       <c r="M16">
-        <v>0.3160516783301546</v>
+        <v>1.325134782034212</v>
       </c>
       <c r="N16">
-        <v>0.9068077607323524</v>
+        <v>0.09674554334804952</v>
       </c>
       <c r="O16">
-        <v>1.98608516509384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2158775853796193</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.316414101752599</v>
+        <v>1.216036399103814</v>
       </c>
       <c r="C17">
-        <v>0.1116781000234326</v>
+        <v>0.1711721933704524</v>
       </c>
       <c r="D17">
-        <v>0.3392772495084557</v>
+        <v>0.1948776282064699</v>
       </c>
       <c r="E17">
-        <v>0.07424051189105363</v>
+        <v>0.0231944952495875</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5381261103401016</v>
+        <v>1.456869193892842</v>
       </c>
       <c r="H17">
-        <v>0.4234032986988865</v>
+        <v>0.1637018755279058</v>
       </c>
       <c r="I17">
-        <v>0.4531185676628446</v>
+        <v>0.04038608604185345</v>
       </c>
       <c r="J17">
-        <v>0.03102534371095533</v>
+        <v>0.9723467837498134</v>
       </c>
       <c r="K17">
-        <v>1.14378776077973</v>
+        <v>1.029089161956833</v>
       </c>
       <c r="L17">
-        <v>0.260786122078656</v>
+        <v>0.05874778749688403</v>
       </c>
       <c r="M17">
-        <v>0.3039289618606702</v>
+        <v>1.263609975463197</v>
       </c>
       <c r="N17">
-        <v>0.9238116673866834</v>
+        <v>0.1090324876102002</v>
       </c>
       <c r="O17">
-        <v>1.974236273210693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2167483403636901</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.284058977579292</v>
+        <v>1.1846560788739</v>
       </c>
       <c r="C18">
-        <v>0.1104629821908887</v>
+        <v>0.1597264767359832</v>
       </c>
       <c r="D18">
-        <v>0.3344148486996374</v>
+        <v>0.2128359146242218</v>
       </c>
       <c r="E18">
-        <v>0.07391157145609561</v>
+        <v>0.02601703106144626</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5351638942354242</v>
+        <v>1.642890605936742</v>
       </c>
       <c r="H18">
-        <v>0.4233567974986414</v>
+        <v>0.1112784954751831</v>
       </c>
       <c r="I18">
-        <v>0.4534634325443676</v>
+        <v>0.04056330365698635</v>
       </c>
       <c r="J18">
-        <v>0.03106504759124995</v>
+        <v>1.068991603057668</v>
       </c>
       <c r="K18">
-        <v>1.115363582092982</v>
+        <v>1.152626746123005</v>
       </c>
       <c r="L18">
-        <v>0.2566206606572905</v>
+        <v>0.04314967688027949</v>
       </c>
       <c r="M18">
-        <v>0.2969737758501125</v>
+        <v>1.218521595336796</v>
       </c>
       <c r="N18">
-        <v>0.9337098733895521</v>
+        <v>0.1385394597967249</v>
       </c>
       <c r="O18">
-        <v>1.967776289743398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2296687555502324</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.273112024090892</v>
+        <v>1.171542970134055</v>
       </c>
       <c r="C19">
-        <v>0.1100516174345501</v>
+        <v>0.1507986522805282</v>
       </c>
       <c r="D19">
-        <v>0.3327750030132535</v>
+        <v>0.2399859936794542</v>
       </c>
       <c r="E19">
-        <v>0.07380156959910344</v>
+        <v>0.03246677169637735</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5341789928533132</v>
+        <v>1.906358662184516</v>
       </c>
       <c r="H19">
-        <v>0.4233515369131027</v>
+        <v>0.06445965691362687</v>
       </c>
       <c r="I19">
-        <v>0.4535936173494299</v>
+        <v>0.03966204877850465</v>
       </c>
       <c r="J19">
-        <v>0.03107859886952014</v>
+        <v>1.203384777448576</v>
       </c>
       <c r="K19">
-        <v>1.105744320571858</v>
+        <v>1.326344353756923</v>
       </c>
       <c r="L19">
-        <v>0.2552145638003793</v>
+        <v>0.02892401510655773</v>
       </c>
       <c r="M19">
-        <v>0.2946217848892942</v>
+        <v>1.191788191001365</v>
       </c>
       <c r="N19">
-        <v>0.9370813156417235</v>
+        <v>0.1853384839363059</v>
       </c>
       <c r="O19">
-        <v>1.965649122306388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2518405173908036</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.322406156172377</v>
+        <v>1.212786270962255</v>
       </c>
       <c r="C20">
-        <v>0.1119030192319457</v>
+        <v>0.1461932026311672</v>
       </c>
       <c r="D20">
-        <v>0.3401802756328749</v>
+        <v>0.2927062319660507</v>
       </c>
       <c r="E20">
-        <v>0.07430204658733253</v>
+        <v>0.04867345993671357</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5386829979944139</v>
+        <v>2.401262269224077</v>
       </c>
       <c r="H20">
-        <v>0.4234169165529522</v>
+        <v>0.03164926022918557</v>
       </c>
       <c r="I20">
-        <v>0.4530611580253776</v>
+        <v>0.03469249515600126</v>
       </c>
       <c r="J20">
-        <v>0.03101804687649157</v>
+        <v>1.450653428769783</v>
       </c>
       <c r="K20">
-        <v>1.149050725442208</v>
+        <v>1.650467132528604</v>
       </c>
       <c r="L20">
-        <v>0.2615590968532047</v>
+        <v>0.01789704161036632</v>
       </c>
       <c r="M20">
-        <v>0.3052176158949607</v>
+        <v>1.214386745614689</v>
       </c>
       <c r="N20">
-        <v>0.9219893140426421</v>
+        <v>0.2781283186244536</v>
       </c>
       <c r="O20">
-        <v>1.975460624910511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2995023620002115</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.48862800295376</v>
+        <v>1.364778400322137</v>
       </c>
       <c r="C21">
-        <v>0.1181289726031522</v>
+        <v>0.1655635973682479</v>
       </c>
       <c r="D21">
-        <v>0.3655284279779067</v>
+        <v>0.3231250553051268</v>
       </c>
       <c r="E21">
-        <v>0.0760812474413548</v>
+        <v>0.05446999273078745</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5551163415278069</v>
+        <v>2.611848223632961</v>
       </c>
       <c r="H21">
-        <v>0.4243854280312576</v>
+        <v>0.02424851273237993</v>
       </c>
       <c r="I21">
-        <v>0.4522321078205422</v>
+        <v>0.02724872419935043</v>
       </c>
       <c r="J21">
-        <v>0.03082216370079482</v>
+        <v>1.547488315013197</v>
       </c>
       <c r="K21">
-        <v>1.294920439735421</v>
+        <v>1.773353525591389</v>
       </c>
       <c r="L21">
-        <v>0.2831839695266325</v>
+        <v>0.02061123473785464</v>
       </c>
       <c r="M21">
-        <v>0.341033589743148</v>
+        <v>1.367473909094713</v>
       </c>
       <c r="N21">
-        <v>0.8727064711307109</v>
+        <v>0.3149934132169108</v>
       </c>
       <c r="O21">
-        <v>2.012740288273648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3386710454939106</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.597770051006194</v>
+        <v>1.465634567380533</v>
       </c>
       <c r="C22">
-        <v>0.1222043009478142</v>
+        <v>0.1781072951030609</v>
       </c>
       <c r="D22">
-        <v>0.3824636258773921</v>
+        <v>0.3411062827214124</v>
       </c>
       <c r="E22">
-        <v>0.07731957751361307</v>
+        <v>0.05748628948581747</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.56688007765392</v>
+        <v>2.738623367221521</v>
       </c>
       <c r="H22">
-        <v>0.4256003426490338</v>
+        <v>0.02023379551778604</v>
       </c>
       <c r="I22">
-        <v>0.4524378939864917</v>
+        <v>0.02268679995280465</v>
       </c>
       <c r="J22">
-        <v>0.03069982331837107</v>
+        <v>1.605329303163444</v>
       </c>
       <c r="K22">
-        <v>1.390577524095988</v>
+        <v>1.84668254070678</v>
       </c>
       <c r="L22">
-        <v>0.2975613318180876</v>
+        <v>0.02281148697293744</v>
       </c>
       <c r="M22">
-        <v>0.3646173759518021</v>
+        <v>1.468375668403183</v>
       </c>
       <c r="N22">
-        <v>0.8415920725500237</v>
+        <v>0.3343488306681479</v>
       </c>
       <c r="O22">
-        <v>2.040485339591186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3625331904494757</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.53946862689503</v>
+        <v>1.412659925089088</v>
       </c>
       <c r="C23">
-        <v>0.1200284965233465</v>
+        <v>0.1704893333119628</v>
       </c>
       <c r="D23">
-        <v>0.3733899115984087</v>
+        <v>0.3317150751468887</v>
       </c>
       <c r="E23">
-        <v>0.07665156732294776</v>
+        <v>0.05596926351893927</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5605042975090271</v>
+        <v>2.681801261041358</v>
       </c>
       <c r="H23">
-        <v>0.4248970965043952</v>
+        <v>0.02229105955668476</v>
       </c>
       <c r="I23">
-        <v>0.4522575283965864</v>
+        <v>0.02465895980055688</v>
       </c>
       <c r="J23">
-        <v>0.03076459593320546</v>
+        <v>1.579924150893106</v>
       </c>
       <c r="K23">
-        <v>1.339490687162112</v>
+        <v>1.815379191536934</v>
       </c>
       <c r="L23">
-        <v>0.2898645454509108</v>
+        <v>0.02161808721128544</v>
       </c>
       <c r="M23">
-        <v>0.3520131417360943</v>
+        <v>1.413492868122574</v>
       </c>
       <c r="N23">
-        <v>0.8580960389734784</v>
+        <v>0.3236466018596502</v>
       </c>
       <c r="O23">
-        <v>2.025357030934174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3497646745795109</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.319697044948526</v>
+        <v>1.211403461998259</v>
       </c>
       <c r="C24">
-        <v>0.1118013338137658</v>
+        <v>0.1437526851772617</v>
       </c>
       <c r="D24">
-        <v>0.3397719051253318</v>
+        <v>0.2960834001914918</v>
       </c>
       <c r="E24">
-        <v>0.07427420210846059</v>
+        <v>0.05009703968796053</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5384309012114841</v>
+        <v>2.45032252860338</v>
       </c>
       <c r="H24">
-        <v>0.4234105678488191</v>
+        <v>0.0312212638948528</v>
       </c>
       <c r="I24">
-        <v>0.4530868663455472</v>
+        <v>0.03393904034068118</v>
       </c>
       <c r="J24">
-        <v>0.03102134375404209</v>
+        <v>1.475546389449931</v>
       </c>
       <c r="K24">
-        <v>1.146671290032884</v>
+        <v>1.684476957924105</v>
       </c>
       <c r="L24">
-        <v>0.2612095623792072</v>
+        <v>0.01733127738165585</v>
       </c>
       <c r="M24">
-        <v>0.304634971006621</v>
+        <v>1.208714357932848</v>
       </c>
       <c r="N24">
-        <v>0.9228128191141027</v>
+        <v>0.2839829632561646</v>
       </c>
       <c r="O24">
-        <v>1.974906001151794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3016987949707044</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.084437734395152</v>
+        <v>0.9957493545409761</v>
       </c>
       <c r="C25">
-        <v>0.1029401403927892</v>
+        <v>0.1160756431344652</v>
       </c>
       <c r="D25">
-        <v>0.3049633617915788</v>
+        <v>0.2581912606843844</v>
       </c>
       <c r="E25">
-        <v>0.0720167268594949</v>
+        <v>0.04379765828728388</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5186712003958007</v>
+        <v>2.203552515268939</v>
       </c>
       <c r="H25">
-        <v>0.4241545412180443</v>
+        <v>0.04299699412690972</v>
       </c>
       <c r="I25">
-        <v>0.4569871023812269</v>
+        <v>0.04628124530696009</v>
       </c>
       <c r="J25">
-        <v>0.03132240690454946</v>
+        <v>1.364553757518564</v>
       </c>
       <c r="K25">
-        <v>0.9397537739391169</v>
+        <v>1.544208652268424</v>
       </c>
       <c r="L25">
-        <v>0.2312564148165279</v>
+        <v>0.01309985558465954</v>
       </c>
       <c r="M25">
-        <v>0.2541876842693078</v>
+        <v>0.9904785796658189</v>
       </c>
       <c r="N25">
-        <v>0.9971094637679601</v>
+        <v>0.2416835692719417</v>
       </c>
       <c r="O25">
-        <v>1.933953299509113</v>
+        <v>0.2503006951111288</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8398314430647247</v>
+        <v>0.8078456631786537</v>
       </c>
       <c r="C2">
-        <v>0.0943576109482791</v>
+        <v>0.126400120478209</v>
       </c>
       <c r="D2">
-        <v>0.2311910572083207</v>
+        <v>0.225375188670526</v>
       </c>
       <c r="E2">
-        <v>0.03938781817989856</v>
+        <v>0.0373786984420299</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.05013365311541</v>
+        <v>1.588224516702667</v>
       </c>
       <c r="H2">
-        <v>0.05320729272268521</v>
+        <v>0.04317999753459789</v>
       </c>
       <c r="I2">
-        <v>0.05608052380175765</v>
+        <v>0.04141081788402046</v>
       </c>
       <c r="J2">
-        <v>1.297310133793331</v>
+        <v>1.011661257624695</v>
       </c>
       <c r="K2">
-        <v>1.46049501885188</v>
+        <v>1.092680635085308</v>
       </c>
       <c r="L2">
-        <v>0.01021761635906504</v>
+        <v>0.4053751596522659</v>
       </c>
       <c r="M2">
-        <v>0.829138966201441</v>
+        <v>0.4120627330859037</v>
       </c>
       <c r="N2">
-        <v>0.2099963384667589</v>
+        <v>0.01198482673821566</v>
       </c>
       <c r="O2">
-        <v>0.2126718936287446</v>
+        <v>0.8743155503977107</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2387812244060683</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2138386138175825</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7332784354591411</v>
+        <v>0.7048337706850134</v>
       </c>
       <c r="C3">
-        <v>0.08126780035543391</v>
+        <v>0.1079559007139892</v>
       </c>
       <c r="D3">
-        <v>0.2127748248783519</v>
+        <v>0.2082723699608664</v>
       </c>
       <c r="E3">
-        <v>0.03625882451797047</v>
+        <v>0.03483614821787917</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.931607083253141</v>
+        <v>1.527882648096991</v>
       </c>
       <c r="H3">
-        <v>0.06116548854628778</v>
+        <v>0.04963544594016334</v>
       </c>
       <c r="I3">
-        <v>0.06433982550536843</v>
+        <v>0.04750356584068971</v>
       </c>
       <c r="J3">
-        <v>1.244479726048553</v>
+        <v>0.976635302920414</v>
       </c>
       <c r="K3">
-        <v>1.392822196664753</v>
+        <v>1.061293265311676</v>
       </c>
       <c r="L3">
-        <v>0.008411333546447963</v>
+        <v>0.400091037737397</v>
       </c>
       <c r="M3">
-        <v>0.7219543038043241</v>
+        <v>0.3960519030809273</v>
       </c>
       <c r="N3">
-        <v>0.1891554691842217</v>
+        <v>0.0100577891755016</v>
       </c>
       <c r="O3">
-        <v>0.1873262059620444</v>
+        <v>0.7599632208534786</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2161408075253988</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.188103452540453</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6679218955036674</v>
+        <v>0.6414984251217675</v>
       </c>
       <c r="C4">
-        <v>0.07343350189177045</v>
+        <v>0.09691126253102311</v>
       </c>
       <c r="D4">
-        <v>0.2015371453815931</v>
+        <v>0.1978376482848319</v>
       </c>
       <c r="E4">
-        <v>0.03432500396829496</v>
+        <v>0.03325919542334788</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.858627633021015</v>
+        <v>1.490757216738544</v>
       </c>
       <c r="H4">
-        <v>0.06650921874379723</v>
+        <v>0.05397422929941831</v>
       </c>
       <c r="I4">
-        <v>0.06991564280953444</v>
+        <v>0.05163673709785233</v>
       </c>
       <c r="J4">
-        <v>1.211994840542403</v>
+        <v>0.9547396144283198</v>
       </c>
       <c r="K4">
-        <v>1.350927234440505</v>
+        <v>1.041631861764749</v>
       </c>
       <c r="L4">
-        <v>0.007357156766660822</v>
+        <v>0.396414107837451</v>
       </c>
       <c r="M4">
-        <v>0.656501624051387</v>
+        <v>0.386905090197871</v>
       </c>
       <c r="N4">
-        <v>0.1764276063172403</v>
+        <v>0.008918468679970815</v>
       </c>
       <c r="O4">
-        <v>0.1718105933153495</v>
+        <v>0.6900219500400198</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2023286806446762</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1723320262728514</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6410930683505853</v>
+        <v>0.6154802035919715</v>
       </c>
       <c r="C5">
-        <v>0.07050613453118615</v>
+        <v>0.0927136793613812</v>
       </c>
       <c r="D5">
-        <v>0.1969185985798134</v>
+        <v>0.1935536995946023</v>
       </c>
       <c r="E5">
-        <v>0.03350999458940151</v>
+        <v>0.03259318729240945</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.826058086035147</v>
+        <v>1.473528637777122</v>
       </c>
       <c r="H5">
-        <v>0.06881646031230249</v>
+        <v>0.05584800342039786</v>
       </c>
       <c r="I5">
-        <v>0.07243605534670783</v>
+        <v>0.05354730267770336</v>
       </c>
       <c r="J5">
-        <v>1.197330624066325</v>
+        <v>0.9446241319194684</v>
       </c>
       <c r="K5">
-        <v>1.331762487786222</v>
+        <v>1.032059741037905</v>
       </c>
       <c r="L5">
-        <v>0.006943636153856403</v>
+        <v>0.3941936035998026</v>
       </c>
       <c r="M5">
-        <v>0.6301552594460418</v>
+        <v>0.3828727763622801</v>
       </c>
       <c r="N5">
-        <v>0.1713425235790567</v>
+        <v>0.008469059374455412</v>
       </c>
       <c r="O5">
-        <v>0.1655046307642181</v>
+        <v>0.6617996373188788</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.196798655544093</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1659170238815264</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6363868399512</v>
+        <v>0.6109350145607948</v>
       </c>
       <c r="C6">
-        <v>0.07029114577045448</v>
+        <v>0.09231196443867873</v>
       </c>
       <c r="D6">
-        <v>0.1960853108734</v>
+        <v>0.1927856988051104</v>
       </c>
       <c r="E6">
-        <v>0.03334591400307829</v>
+        <v>0.03245899701086508</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.817261824764685</v>
+        <v>1.46813405280804</v>
       </c>
       <c r="H6">
-        <v>0.0692281840754263</v>
+        <v>0.05618172522331388</v>
       </c>
       <c r="I6">
-        <v>0.07302177309624991</v>
+        <v>0.05403820389995673</v>
       </c>
       <c r="J6">
-        <v>1.193170829961531</v>
+        <v>0.9416017085189026</v>
       </c>
       <c r="K6">
-        <v>1.326128545847382</v>
+        <v>1.028680961706058</v>
       </c>
       <c r="L6">
-        <v>0.006880276342946523</v>
+        <v>0.3930705918824344</v>
       </c>
       <c r="M6">
-        <v>0.626087171096458</v>
+        <v>0.3816316600340599</v>
       </c>
       <c r="N6">
-        <v>0.1706051960982222</v>
+        <v>0.008401217244106363</v>
       </c>
       <c r="O6">
-        <v>0.1644666387747051</v>
+        <v>0.6573860358592469</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1959774440864379</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1648595106702722</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6668678672980946</v>
+        <v>0.6408057765038961</v>
       </c>
       <c r="C7">
-        <v>0.07412726024271876</v>
+        <v>0.09728396918518456</v>
       </c>
       <c r="D7">
-        <v>0.2012909788441135</v>
+        <v>0.1976720804491521</v>
       </c>
       <c r="E7">
-        <v>0.03423605802950824</v>
+        <v>0.03320167882188763</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.848941159493478</v>
+        <v>1.486107172042509</v>
       </c>
       <c r="H7">
-        <v>0.06659779508618602</v>
+        <v>0.05406859329348279</v>
       </c>
       <c r="I7">
-        <v>0.07036497517307705</v>
+        <v>0.05212621309872656</v>
       </c>
       <c r="J7">
-        <v>1.207090882259351</v>
+        <v>0.9418541867777321</v>
       </c>
       <c r="K7">
-        <v>1.343986025957165</v>
+        <v>1.034220804717144</v>
       </c>
       <c r="L7">
-        <v>0.007363749875299419</v>
+        <v>0.3933758416364697</v>
       </c>
       <c r="M7">
-        <v>0.6569705674512392</v>
+        <v>0.3844283542102005</v>
       </c>
       <c r="N7">
-        <v>0.1766498376518726</v>
+        <v>0.00891252705611123</v>
       </c>
       <c r="O7">
-        <v>0.1717485653705353</v>
+        <v>0.6900260320717706</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2023677747593808</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1722575082979674</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8021374224931321</v>
+        <v>0.7724157006620374</v>
       </c>
       <c r="C8">
-        <v>0.09077451011980031</v>
+        <v>0.1198037162013463</v>
       </c>
       <c r="D8">
-        <v>0.2245821234912171</v>
+        <v>0.2194238690230179</v>
       </c>
       <c r="E8">
-        <v>0.03820772177179599</v>
+        <v>0.03647307982278924</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.997065945241303</v>
+        <v>1.566759779832793</v>
       </c>
       <c r="H8">
-        <v>0.05592166491377082</v>
+        <v>0.0454475073747731</v>
       </c>
       <c r="I8">
-        <v>0.05931792425896454</v>
+        <v>0.04403172485192464</v>
       </c>
       <c r="J8">
-        <v>1.272889934561874</v>
+        <v>0.965069107969768</v>
       </c>
       <c r="K8">
-        <v>1.42839487250049</v>
+        <v>1.067660330892167</v>
       </c>
       <c r="L8">
-        <v>0.009597213467285926</v>
+        <v>0.3980049533089343</v>
       </c>
       <c r="M8">
-        <v>0.7931875182530064</v>
+        <v>0.4013847266953547</v>
       </c>
       <c r="N8">
-        <v>0.2031835033876703</v>
+        <v>0.01127558697266728</v>
       </c>
       <c r="O8">
-        <v>0.2039505723499637</v>
+        <v>0.8346084747176405</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.230810165573601</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2049543131350902</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.069554261820599</v>
+        <v>1.030198296496536</v>
       </c>
       <c r="C9">
-        <v>0.1239248865463907</v>
+        <v>0.1663013984205151</v>
       </c>
       <c r="D9">
-        <v>0.2712229459623643</v>
+        <v>0.2627754531375643</v>
       </c>
       <c r="E9">
-        <v>0.0460588954878105</v>
+        <v>0.04283651473448558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.302928584253806</v>
+        <v>1.727870078523438</v>
       </c>
       <c r="H9">
-        <v>0.03868755541963687</v>
+        <v>0.03148692481156901</v>
       </c>
       <c r="I9">
-        <v>0.04119917561376951</v>
+        <v>0.03062676858256186</v>
       </c>
       <c r="J9">
-        <v>1.410142687043276</v>
+        <v>1.04649187312782</v>
       </c>
       <c r="K9">
-        <v>1.603315100534687</v>
+        <v>1.147549277245908</v>
       </c>
       <c r="L9">
-        <v>0.01446286816350195</v>
+        <v>0.4106325613247819</v>
       </c>
       <c r="M9">
-        <v>1.062226275324605</v>
+        <v>0.4460775287704735</v>
       </c>
       <c r="N9">
-        <v>0.2553418467977764</v>
+        <v>0.0163459591297439</v>
       </c>
       <c r="O9">
-        <v>0.2675293187699523</v>
+        <v>1.120679192512597</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2874580230966615</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2693858516466605</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.267032294258257</v>
+        <v>1.221919859832866</v>
       </c>
       <c r="C10">
-        <v>0.1510317880262733</v>
+        <v>0.2008050366916621</v>
       </c>
       <c r="D10">
-        <v>0.3014324343933623</v>
+        <v>0.29110996004664</v>
       </c>
       <c r="E10">
-        <v>0.05003225678838596</v>
+        <v>0.04600183663057855</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.477583944538594</v>
+        <v>1.828220043257261</v>
       </c>
       <c r="H10">
-        <v>0.02921944741722005</v>
+        <v>0.02394481124765324</v>
       </c>
       <c r="I10">
-        <v>0.03111620932275905</v>
+        <v>0.02338725018867294</v>
       </c>
       <c r="J10">
-        <v>1.485971118178526</v>
+        <v>1.037527751975006</v>
       </c>
       <c r="K10">
-        <v>1.696739779826103</v>
+        <v>1.169809264470267</v>
       </c>
       <c r="L10">
-        <v>0.01909095411412309</v>
+        <v>0.4055432546236446</v>
       </c>
       <c r="M10">
-        <v>1.265302791968509</v>
+        <v>0.4687109375465539</v>
       </c>
       <c r="N10">
-        <v>0.2855330400808498</v>
+        <v>0.0211420325783358</v>
       </c>
       <c r="O10">
-        <v>0.3110505401009505</v>
+        <v>1.332664022651812</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3193753783482123</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3133078240100673</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.358678273736444</v>
+        <v>1.319574796156189</v>
       </c>
       <c r="C11">
-        <v>0.1737412763511799</v>
+        <v>0.2176836549337082</v>
       </c>
       <c r="D11">
-        <v>0.2768834190352152</v>
+        <v>0.2684610177091145</v>
       </c>
       <c r="E11">
-        <v>0.03864609665277818</v>
+        <v>0.03605978679901689</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.163616114115115</v>
+        <v>1.633244379472785</v>
       </c>
       <c r="H11">
-        <v>0.04717216993881834</v>
+        <v>0.04218156906246051</v>
       </c>
       <c r="I11">
-        <v>0.02962367213005646</v>
+        <v>0.02260221853775235</v>
       </c>
       <c r="J11">
-        <v>1.322155790916469</v>
+        <v>0.8357459410514991</v>
       </c>
       <c r="K11">
-        <v>1.476196259755284</v>
+        <v>0.9970050723255142</v>
       </c>
       <c r="L11">
-        <v>0.03060199055450497</v>
+        <v>0.3395580199621619</v>
       </c>
       <c r="M11">
-        <v>1.378921668284249</v>
+        <v>0.4065205505491249</v>
       </c>
       <c r="N11">
-        <v>0.2278082031877062</v>
+        <v>0.03395021637416562</v>
       </c>
       <c r="O11">
-        <v>0.2995724685303927</v>
+        <v>1.43962378077336</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.254885490389583</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3015090233433284</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.395523969195096</v>
+        <v>1.361956540588949</v>
       </c>
       <c r="C12">
-        <v>0.1864931119797859</v>
+        <v>0.2246510214887394</v>
       </c>
       <c r="D12">
-        <v>0.2509761442384217</v>
+        <v>0.2441852374504379</v>
       </c>
       <c r="E12">
-        <v>0.03104974722865794</v>
+        <v>0.02954551674186057</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.894497406805129</v>
+        <v>1.457832660469805</v>
       </c>
       <c r="H12">
-        <v>0.08640806408605073</v>
+        <v>0.08134547567785688</v>
       </c>
       <c r="I12">
-        <v>0.02954338336377216</v>
+        <v>0.02251507417906229</v>
       </c>
       <c r="J12">
-        <v>1.183964688536207</v>
+        <v>0.7183650622830271</v>
       </c>
       <c r="K12">
-        <v>1.295273482705205</v>
+        <v>0.8736330598243782</v>
       </c>
       <c r="L12">
-        <v>0.04431731651131443</v>
+        <v>0.2955133619323718</v>
       </c>
       <c r="M12">
-        <v>1.431238768185978</v>
+        <v>0.3588038427154459</v>
       </c>
       <c r="N12">
-        <v>0.1786079120213344</v>
+        <v>0.0484302362235951</v>
       </c>
       <c r="O12">
-        <v>0.2807883936863149</v>
+        <v>1.485614462686073</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2007852498884901</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2824345945088496</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.390832862103565</v>
+        <v>1.362048719256251</v>
       </c>
       <c r="C13">
-        <v>0.1933213796161937</v>
+        <v>0.2266926060726036</v>
       </c>
       <c r="D13">
-        <v>0.2223729920502393</v>
+        <v>0.2170249538278028</v>
       </c>
       <c r="E13">
-        <v>0.02581273255484007</v>
+        <v>0.02523146863584813</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.630319438290911</v>
+        <v>1.272834689074287</v>
       </c>
       <c r="H13">
-        <v>0.1438152372042367</v>
+        <v>0.1383545096531975</v>
       </c>
       <c r="I13">
-        <v>0.03106466309112488</v>
+        <v>0.02351117662631363</v>
       </c>
       <c r="J13">
-        <v>1.050276117575521</v>
+        <v>0.6544120607507722</v>
       </c>
       <c r="K13">
-        <v>1.124179999501997</v>
+        <v>0.7747726202633984</v>
       </c>
       <c r="L13">
-        <v>0.0603108392293592</v>
+        <v>0.262229013005534</v>
       </c>
       <c r="M13">
-        <v>1.440144973654128</v>
+        <v>0.3181229554437692</v>
       </c>
       <c r="N13">
-        <v>0.133862522999209</v>
+        <v>0.06503040460982135</v>
       </c>
       <c r="O13">
-        <v>0.2554825920988115</v>
+        <v>1.489104467792686</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1523127418313024</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2568532996716897</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.368547772037431</v>
+        <v>1.342776522010297</v>
       </c>
       <c r="C14">
-        <v>0.1957208880611034</v>
+        <v>0.2261562126904693</v>
       </c>
       <c r="D14">
-        <v>0.2014103632576649</v>
+        <v>0.1969940633773177</v>
       </c>
       <c r="E14">
-        <v>0.02359096540301131</v>
+        <v>0.02359351512612706</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.44935457077797</v>
+        <v>1.141682002919666</v>
       </c>
       <c r="H14">
-        <v>0.1948104614769193</v>
+        <v>0.1889179296007057</v>
       </c>
       <c r="I14">
-        <v>0.03300230072461829</v>
+        <v>0.02484723205766848</v>
       </c>
       <c r="J14">
-        <v>0.9594670194681498</v>
+        <v>0.627633084210629</v>
       </c>
       <c r="K14">
-        <v>1.010147387613706</v>
+        <v>0.7151879542045023</v>
       </c>
       <c r="L14">
-        <v>0.07308742378225475</v>
+        <v>0.2428736098485942</v>
       </c>
       <c r="M14">
-        <v>1.427020516278304</v>
+        <v>0.2926708067072141</v>
       </c>
       <c r="N14">
-        <v>0.1057605656087972</v>
+        <v>0.07817155120842045</v>
       </c>
       <c r="O14">
-        <v>0.2350431853411159</v>
+        <v>1.472514580414355</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1220542462134375</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2362173586622696</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.353947833826425</v>
+        <v>1.32878234194169</v>
       </c>
       <c r="C15">
-        <v>0.1953141410110391</v>
+        <v>0.225251908007067</v>
       </c>
       <c r="D15">
-        <v>0.1956068810603284</v>
+        <v>0.1914171982762269</v>
       </c>
       <c r="E15">
-        <v>0.02319499406897396</v>
+        <v>0.02334801807010067</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.401819808899916</v>
+        <v>1.105870808068474</v>
       </c>
       <c r="H15">
-        <v>0.2080928751600197</v>
+        <v>0.2020053860812681</v>
       </c>
       <c r="I15">
-        <v>0.0340228927000048</v>
+        <v>0.02561383147625396</v>
       </c>
       <c r="J15">
-        <v>0.9360546728720749</v>
+        <v>0.627088565322353</v>
       </c>
       <c r="K15">
-        <v>0.9810970127237653</v>
+        <v>0.7023796418968544</v>
       </c>
       <c r="L15">
-        <v>0.07603019154947077</v>
+        <v>0.2389638231891134</v>
       </c>
       <c r="M15">
-        <v>1.414796241041444</v>
+        <v>0.2868451697609942</v>
       </c>
       <c r="N15">
-        <v>0.09916666743190916</v>
+        <v>0.08122067106037179</v>
       </c>
       <c r="O15">
-        <v>0.228716783156333</v>
+        <v>1.459566927210176</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.115042127173794</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2298379189379602</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.269117858599316</v>
+        <v>1.242761049737339</v>
       </c>
       <c r="C16">
-        <v>0.1823331672496948</v>
+        <v>0.2139628068677411</v>
       </c>
       <c r="D16">
-        <v>0.1890103815141941</v>
+        <v>0.1848810090536688</v>
       </c>
       <c r="E16">
-        <v>0.02268350271395619</v>
+        <v>0.02297381446285984</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.38014634084027</v>
+        <v>1.081573084290611</v>
       </c>
       <c r="H16">
-        <v>0.199290943440559</v>
+        <v>0.1923168234164905</v>
       </c>
       <c r="I16">
-        <v>0.03816926622318295</v>
+        <v>0.02856293551030742</v>
       </c>
       <c r="J16">
-        <v>0.9300054354905853</v>
+        <v>0.68607625240071</v>
       </c>
       <c r="K16">
-        <v>0.975139511052781</v>
+        <v>0.7223597592444193</v>
       </c>
       <c r="L16">
-        <v>0.07028158771883852</v>
+        <v>0.2481695378293551</v>
       </c>
       <c r="M16">
-        <v>1.325134782034212</v>
+        <v>0.2917636635760665</v>
       </c>
       <c r="N16">
-        <v>0.09674554334804952</v>
+        <v>0.07569839495487685</v>
       </c>
       <c r="O16">
-        <v>0.2158775853796193</v>
+        <v>1.370876619849639</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1134120187976535</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2169449744367249</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.216036399103814</v>
+        <v>1.187661460722325</v>
       </c>
       <c r="C17">
-        <v>0.1711721933704524</v>
+        <v>0.2049706782657523</v>
       </c>
       <c r="D17">
-        <v>0.1948776282064699</v>
+        <v>0.1903710025711263</v>
       </c>
       <c r="E17">
-        <v>0.0231944952495875</v>
+        <v>0.02326001249193521</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.456869193892842</v>
+        <v>1.132504182349564</v>
       </c>
       <c r="H17">
-        <v>0.1637018755279058</v>
+        <v>0.1562841060652858</v>
       </c>
       <c r="I17">
-        <v>0.04038608604185345</v>
+        <v>0.03019185883178999</v>
       </c>
       <c r="J17">
-        <v>0.9723467837498134</v>
+        <v>0.7435805135401381</v>
       </c>
       <c r="K17">
-        <v>1.029089161956833</v>
+        <v>0.7680145360024326</v>
       </c>
       <c r="L17">
-        <v>0.05874778749688403</v>
+        <v>0.2657425569497427</v>
       </c>
       <c r="M17">
-        <v>1.263609975463197</v>
+        <v>0.3079353510489078</v>
       </c>
       <c r="N17">
-        <v>0.1090324876102002</v>
+        <v>0.06402582264754386</v>
       </c>
       <c r="O17">
-        <v>0.2167483403636901</v>
+        <v>1.311256363555998</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1274127281348001</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2178708914590501</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.1846560788739</v>
+        <v>1.152733656952279</v>
       </c>
       <c r="C18">
-        <v>0.1597264767359832</v>
+        <v>0.1970725135221727</v>
       </c>
       <c r="D18">
-        <v>0.2128359146242218</v>
+        <v>0.207353269752403</v>
       </c>
       <c r="E18">
-        <v>0.02601703106144626</v>
+        <v>0.02543055319312604</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.642890605936742</v>
+        <v>1.259704268916721</v>
       </c>
       <c r="H18">
-        <v>0.1112784954751831</v>
+        <v>0.1038202568919573</v>
       </c>
       <c r="I18">
-        <v>0.04056330365698635</v>
+        <v>0.03025001834840069</v>
       </c>
       <c r="J18">
-        <v>1.068991603057668</v>
+        <v>0.8232470570421953</v>
       </c>
       <c r="K18">
-        <v>1.152626746123005</v>
+        <v>0.8525216645278988</v>
       </c>
       <c r="L18">
-        <v>0.04314967688027949</v>
+        <v>0.2969315834737465</v>
       </c>
       <c r="M18">
-        <v>1.218521595336796</v>
+        <v>0.3396990926917347</v>
       </c>
       <c r="N18">
-        <v>0.1385394597967249</v>
+        <v>0.04794944951504831</v>
       </c>
       <c r="O18">
-        <v>0.2296687555502324</v>
+        <v>1.270036253785634</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1600702785398198</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2309842528768726</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.171542970134055</v>
+        <v>1.135110989553027</v>
       </c>
       <c r="C19">
-        <v>0.1507986522805282</v>
+        <v>0.1927073896416829</v>
       </c>
       <c r="D19">
-        <v>0.2399859936794542</v>
+        <v>0.2330220874933389</v>
       </c>
       <c r="E19">
-        <v>0.03246677169637735</v>
+        <v>0.03081889535967886</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.906358662184516</v>
+        <v>1.437890299282458</v>
       </c>
       <c r="H19">
-        <v>0.06445965691362687</v>
+        <v>0.0573392235608523</v>
       </c>
       <c r="I19">
-        <v>0.03966204877850465</v>
+        <v>0.02973710604521607</v>
       </c>
       <c r="J19">
-        <v>1.203384777448576</v>
+        <v>0.9195127548845932</v>
       </c>
       <c r="K19">
-        <v>1.326344353756923</v>
+        <v>0.96453822433363</v>
       </c>
       <c r="L19">
-        <v>0.02892401510655773</v>
+        <v>0.3376906612978416</v>
       </c>
       <c r="M19">
-        <v>1.191788191001365</v>
+        <v>0.382549283961211</v>
       </c>
       <c r="N19">
-        <v>0.1853384839363059</v>
+        <v>0.03285608585941802</v>
       </c>
       <c r="O19">
-        <v>0.2518405173908036</v>
+        <v>1.248534437538552</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.211325125494831</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2534576200618126</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.212786270962255</v>
+        <v>1.1686008314189</v>
       </c>
       <c r="C20">
-        <v>0.1461932026311672</v>
+        <v>0.1956322891010984</v>
       </c>
       <c r="D20">
-        <v>0.2927062319660507</v>
+        <v>0.2827867087672189</v>
       </c>
       <c r="E20">
-        <v>0.04867345993671357</v>
+        <v>0.04485607310550321</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.401262269224077</v>
+        <v>1.770408590676595</v>
       </c>
       <c r="H20">
-        <v>0.03164926022918557</v>
+        <v>0.0258247354797696</v>
       </c>
       <c r="I20">
-        <v>0.03469249515600126</v>
+        <v>0.02631808867031626</v>
       </c>
       <c r="J20">
-        <v>1.450653428769783</v>
+        <v>1.059638606481428</v>
       </c>
       <c r="K20">
-        <v>1.650467132528604</v>
+        <v>1.157241588794697</v>
       </c>
       <c r="L20">
-        <v>0.01789704161036632</v>
+        <v>0.4044624923148774</v>
       </c>
       <c r="M20">
-        <v>1.214386745614689</v>
+        <v>0.4599850010532691</v>
       </c>
       <c r="N20">
-        <v>0.2781283186244536</v>
+        <v>0.02000811559909188</v>
       </c>
       <c r="O20">
-        <v>0.2995023620002115</v>
+        <v>1.280539831473419</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3119384141532606</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3016913584486787</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.364778400322137</v>
+        <v>1.319956261301627</v>
       </c>
       <c r="C21">
-        <v>0.1655635973682479</v>
+        <v>0.2141577031159443</v>
       </c>
       <c r="D21">
-        <v>0.3231250553051268</v>
+        <v>0.3123657479589781</v>
       </c>
       <c r="E21">
-        <v>0.05446999273078745</v>
+        <v>0.05002362827588236</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.611848223632961</v>
+        <v>1.950627079603436</v>
       </c>
       <c r="H21">
-        <v>0.02424851273237993</v>
+        <v>0.02007028955424861</v>
       </c>
       <c r="I21">
-        <v>0.02724872419935043</v>
+        <v>0.02117566540062388</v>
       </c>
       <c r="J21">
-        <v>1.547488315013197</v>
+        <v>0.9251252533441345</v>
       </c>
       <c r="K21">
-        <v>1.773353525591389</v>
+        <v>1.163439580629245</v>
       </c>
       <c r="L21">
-        <v>0.02061123473785464</v>
+        <v>0.396931474688742</v>
       </c>
       <c r="M21">
-        <v>1.367473909094713</v>
+        <v>0.4736800900454057</v>
       </c>
       <c r="N21">
-        <v>0.3149934132169108</v>
+        <v>0.02216660150897809</v>
       </c>
       <c r="O21">
-        <v>0.3386710454939106</v>
+        <v>1.434112305015674</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3484298481089922</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3409855999846769</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.465634567380533</v>
+        <v>1.420896356184699</v>
       </c>
       <c r="C22">
-        <v>0.1781072951030609</v>
+        <v>0.2251804104601831</v>
       </c>
       <c r="D22">
-        <v>0.3411062827214124</v>
+        <v>0.3300127284193906</v>
       </c>
       <c r="E22">
-        <v>0.05748628948581747</v>
+        <v>0.05275961336071511</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.738623367221521</v>
+        <v>2.069078999190253</v>
       </c>
       <c r="H22">
-        <v>0.02023379551778604</v>
+        <v>0.01695666059607381</v>
       </c>
       <c r="I22">
-        <v>0.02268679995280465</v>
+        <v>0.01783829870125597</v>
       </c>
       <c r="J22">
-        <v>1.605329303163444</v>
+        <v>0.8330572349130989</v>
       </c>
       <c r="K22">
-        <v>1.84668254070678</v>
+        <v>1.160071569198713</v>
       </c>
       <c r="L22">
-        <v>0.02281148697293744</v>
+        <v>0.3895674420445232</v>
       </c>
       <c r="M22">
-        <v>1.468375668403183</v>
+        <v>0.4800086745142522</v>
       </c>
       <c r="N22">
-        <v>0.3343488306681479</v>
+        <v>0.02405222086286507</v>
       </c>
       <c r="O22">
-        <v>0.3625331904494757</v>
+        <v>1.53411511976293</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3669144066891334</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3648477922822124</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.412659925089088</v>
+        <v>1.367037106221545</v>
       </c>
       <c r="C23">
-        <v>0.1704893333119628</v>
+        <v>0.2193303341676227</v>
       </c>
       <c r="D23">
-        <v>0.3317150751468887</v>
+        <v>0.3206131166193558</v>
       </c>
       <c r="E23">
-        <v>0.05596926351893927</v>
+        <v>0.05132195624279134</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.681801261041358</v>
+        <v>2.00613227204974</v>
       </c>
       <c r="H23">
-        <v>0.02229105955668476</v>
+        <v>0.01853090018195502</v>
       </c>
       <c r="I23">
-        <v>0.02465895980055688</v>
+        <v>0.01909824146991568</v>
       </c>
       <c r="J23">
-        <v>1.579924150893106</v>
+        <v>0.903719332277376</v>
       </c>
       <c r="K23">
-        <v>1.815379191536934</v>
+        <v>1.172978243012196</v>
       </c>
       <c r="L23">
-        <v>0.02161808721128544</v>
+        <v>0.3972979921882995</v>
       </c>
       <c r="M23">
-        <v>1.413492868122574</v>
+        <v>0.4810908144783212</v>
       </c>
       <c r="N23">
-        <v>0.3236466018596502</v>
+        <v>0.02306558369832423</v>
       </c>
       <c r="O23">
-        <v>0.3497646745795109</v>
+        <v>1.480860260320242</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3571216038394738</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3521149258333622</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.211403461998259</v>
+        <v>1.166595059419365</v>
       </c>
       <c r="C24">
-        <v>0.1437526851772617</v>
+        <v>0.1934366510122913</v>
       </c>
       <c r="D24">
-        <v>0.2960834001914918</v>
+        <v>0.2859292505796276</v>
       </c>
       <c r="E24">
-        <v>0.05009703968796053</v>
+        <v>0.04609854352685261</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.45032252860338</v>
+        <v>1.80406067996671</v>
       </c>
       <c r="H24">
-        <v>0.0312212638948528</v>
+        <v>0.02545096716308937</v>
       </c>
       <c r="I24">
-        <v>0.03393904034068118</v>
+        <v>0.02552056426142268</v>
       </c>
       <c r="J24">
-        <v>1.475546389449931</v>
+        <v>1.078552981373662</v>
       </c>
       <c r="K24">
-        <v>1.684476957924105</v>
+        <v>1.180080598081311</v>
       </c>
       <c r="L24">
-        <v>0.01733127738165585</v>
+        <v>0.4128274912868264</v>
       </c>
       <c r="M24">
-        <v>1.208714357932848</v>
+        <v>0.4686680351587356</v>
       </c>
       <c r="N24">
-        <v>0.2839829632561646</v>
+        <v>0.01927581956375946</v>
       </c>
       <c r="O24">
-        <v>0.3016987949707044</v>
+        <v>1.275504662550503</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3184239541861871</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3039237677084259</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9957493545409761</v>
+        <v>0.9589334279087041</v>
       </c>
       <c r="C25">
-        <v>0.1160756431344652</v>
+        <v>0.1554595235011931</v>
       </c>
       <c r="D25">
-        <v>0.2581912606843844</v>
+        <v>0.2506166503650036</v>
       </c>
       <c r="E25">
-        <v>0.04379765828728388</v>
+        <v>0.04098726755929505</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.203552515268939</v>
+        <v>1.668390150738745</v>
       </c>
       <c r="H25">
-        <v>0.04299699412690972</v>
+        <v>0.03494707376838835</v>
       </c>
       <c r="I25">
-        <v>0.04628124530696009</v>
+        <v>0.03456499075191921</v>
       </c>
       <c r="J25">
-        <v>1.364553757518564</v>
+        <v>1.031189489160397</v>
       </c>
       <c r="K25">
-        <v>1.544208652268424</v>
+        <v>1.121148586812339</v>
       </c>
       <c r="L25">
-        <v>0.01309985558465954</v>
+        <v>0.4056665481650512</v>
       </c>
       <c r="M25">
-        <v>0.9904785796658189</v>
+        <v>0.4314969294312405</v>
       </c>
       <c r="N25">
-        <v>0.2416835692719417</v>
+        <v>0.01497694741165567</v>
       </c>
       <c r="O25">
-        <v>0.2503006951111288</v>
+        <v>1.044797860817852</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2727357643456259</v>
       </c>
       <c r="Q25">
+        <v>0.2519540183842075</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
